--- a/data/2022/results.xlsx
+++ b/data/2022/results.xlsx
@@ -2607,7 +2607,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2625,6 +2625,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -18192,8 +18195,8 @@
       <c r="Q298" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R298" s="4">
-        <v>87000.0</v>
+      <c r="R298" s="6">
+        <v>7250.0</v>
       </c>
       <c r="S298" s="4">
         <v>148000.0</v>
@@ -22681,7 +22684,7 @@
       <c r="R386" s="4">
         <v>2600.0</v>
       </c>
-      <c r="S386" s="6">
+      <c r="S386" s="7">
         <v>32500.0</v>
       </c>
       <c r="T386" s="1"/>
@@ -25405,7 +25408,7 @@
       <c r="Q439" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R439" s="7">
+      <c r="R439" s="8">
         <v>3300.0</v>
       </c>
       <c r="S439" s="4">
@@ -35995,7 +35998,7 @@
       <c r="Q645" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R645" s="8">
+      <c r="R645" s="9">
         <v>4460.0</v>
       </c>
       <c r="S645" s="4">

--- a/data/2022/results.xlsx
+++ b/data/2022/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5692" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5664" uniqueCount="823">
   <si>
     <t>Timestamp</t>
   </si>
@@ -460,9 +460,6 @@
     <t>Jonkinmoinen johtaja</t>
   </si>
   <si>
-    <t>350000-400000</t>
-  </si>
-  <si>
     <t>Lisäksi firman osakkeita n. 800k€ vuodessa.</t>
   </si>
   <si>
@@ -796,9 +793,6 @@
     <t>Frontend</t>
   </si>
   <si>
-    <t>80 000</t>
-  </si>
-  <si>
     <t>full-stack/frontend</t>
   </si>
   <si>
@@ -829,9 +823,6 @@
     <t>Data Developer</t>
   </si>
   <si>
-    <t>70 000</t>
-  </si>
-  <si>
     <t>kiinteä kk-palkka + max. 10% bonus</t>
   </si>
   <si>
@@ -880,9 +871,6 @@
     <t>Elektrobit Automotive Finland Oy</t>
   </si>
   <si>
-    <t>61312,5</t>
-  </si>
-  <si>
     <t>fullstack</t>
   </si>
   <si>
@@ -937,12 +925,6 @@
     <t>Ohjelmistokehittäjä, enimmäkseen backend</t>
   </si>
   <si>
-    <t>4640,71</t>
-  </si>
-  <si>
-    <t>58008,87</t>
-  </si>
-  <si>
     <t>Cloud</t>
   </si>
   <si>
@@ -973,12 +955,6 @@
     <t>Ohjelmistotestaaja</t>
   </si>
   <si>
-    <t>4239,17</t>
-  </si>
-  <si>
-    <t>60757,96</t>
-  </si>
-  <si>
     <t>Pohjapalkka + laskutusbonus</t>
   </si>
   <si>
@@ -1087,12 +1063,6 @@
     <t>Data engineer</t>
   </si>
   <si>
-    <t>n. 6500</t>
-  </si>
-  <si>
-    <t>n. 81250</t>
-  </si>
-  <si>
     <t>Kk-palkka on laskutusperusteinen, jossa mahdollinen pidempi penkkiaika tiputtaa tuloja reippaasti.</t>
   </si>
   <si>
@@ -1111,13 +1081,7 @@
     <t>Solution manager</t>
   </si>
   <si>
-    <t>48 700</t>
-  </si>
-  <si>
     <t>Full-stack developer</t>
-  </si>
-  <si>
-    <t>66 250</t>
   </si>
   <si>
     <t>Data scientist</t>
@@ -1559,9 +1523,6 @@
     <t>ohjelmistokehittäjä (frontend ja legacy-hommia)</t>
   </si>
   <si>
-    <t>41 000</t>
-  </si>
-  <si>
     <t>Palkkaa voisi saada jostain muualta enemmän, mutta kokonaiskuvana (työn sisältö, tiimi, rahanarvoiset edut), sen verran tyytyväinen, että en ainakaan vielä ole vaihtamassa.</t>
   </si>
   <si>
@@ -1670,18 +1631,12 @@
     <t>Ohjelmistokehittäjä, backend pääosin, mutta kaikkea mahtuu</t>
   </si>
   <si>
-    <t>56, 250</t>
-  </si>
-  <si>
     <t>Team Lead, projekti- ja tuotekonsultointi</t>
   </si>
   <si>
     <t>SAP-konsultti</t>
   </si>
   <si>
-    <t>40 000</t>
-  </si>
-  <si>
     <t>Full-stack pilvikehittäjä</t>
   </si>
   <si>
@@ -1706,9 +1661,6 @@
     <t>ohjelmoija, backend</t>
   </si>
   <si>
-    <t>5259,29</t>
-  </si>
-  <si>
     <t>Ohjelmistokehittäjä, mobiili</t>
   </si>
   <si>
@@ -1847,9 +1799,6 @@
     <t>Kiinteä kk-palkka ja osakkeita</t>
   </si>
   <si>
-    <t>n. 100 000€</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vuosittaiset bonukset rahana sekä erikseen vuosittaiset RSU:t palkanlisänä (rajoitettuja osakeoikeuksia) </t>
   </si>
   <si>
@@ -1865,9 +1814,6 @@
     <t>Osakeanti työntekijöille</t>
   </si>
   <si>
-    <t>81 250</t>
-  </si>
-  <si>
     <t>Osuuskunta osuus</t>
   </si>
   <si>
@@ -1910,9 +1856,6 @@
     <t>full stack everything</t>
   </si>
   <si>
-    <t>57 500</t>
-  </si>
-  <si>
     <t>Senior developer</t>
   </si>
   <si>
@@ -1970,9 +1913,6 @@
     <t>Palkka, bonukset, ei musta</t>
   </si>
   <si>
-    <t>112,5</t>
-  </si>
-  <si>
     <t>Full-stack dev</t>
   </si>
   <si>
@@ -2097,9 +2037,6 @@
   </si>
   <si>
     <t>Software developer</t>
-  </si>
-  <si>
-    <t>35 625</t>
   </si>
   <si>
     <t>Projekti-insinööri</t>
@@ -2166,9 +2103,6 @@
     <t>ohjelmistokehittäjä, backend</t>
   </si>
   <si>
-    <t>60 625</t>
-  </si>
-  <si>
     <t>opintovapaa</t>
   </si>
   <si>
@@ -2253,9 +2187,6 @@
     <t>Senior Consultant</t>
   </si>
   <si>
-    <t>64 312,5</t>
-  </si>
-  <si>
     <t>Mukana pieni osakkuus</t>
   </si>
   <si>
@@ -2295,9 +2226,6 @@
     <t>Full-stack sovelluskehittäjä</t>
   </si>
   <si>
-    <t>32 200</t>
-  </si>
-  <si>
     <t>Hyvinvointietu 500e/vuosi + henkilökohtainen opiskelubudgetti</t>
   </si>
   <si>
@@ -2353,12 +2281,6 @@
   </si>
   <si>
     <t>Full-Stack dev</t>
-  </si>
-  <si>
-    <t>10 000</t>
-  </si>
-  <si>
-    <t>130 000</t>
   </si>
   <si>
     <t>Ulkomailla.</t>
@@ -2422,9 +2344,6 @@
     <t>mietityttää, olisiko kuitenkin koulutustausta relevantti tieto?</t>
   </si>
   <si>
-    <t>69562,5</t>
-  </si>
-  <si>
     <t>Optiomalli</t>
   </si>
   <si>
@@ -2525,9 +2444,6 @@
   </si>
   <si>
     <t>Engineering team lead</t>
-  </si>
-  <si>
-    <t>200 000</t>
   </si>
   <si>
     <t>Pörssilistatun yrityksen RSUt, jotka vestautuu neljä kertaa vuodessa.</t>
@@ -2607,7 +2523,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2628,6 +2544,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -4141,8 +4060,8 @@
       <c r="R25" s="4">
         <v>5800.0</v>
       </c>
-      <c r="S25" s="4">
-        <v>0.0</v>
+      <c r="S25" s="6">
+        <v>72500.0</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1" t="s">
@@ -6103,11 +6022,11 @@
       <c r="R63" s="4">
         <v>22500.0</v>
       </c>
-      <c r="S63" s="1" t="s">
+      <c r="S63" s="7">
+        <v>350000.0</v>
+      </c>
+      <c r="T63" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="T63" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="U63" s="1" t="s">
         <v>31</v>
@@ -6138,7 +6057,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>26</v>
@@ -6150,7 +6069,7 @@
         <v>1.0</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q64" s="1" t="s">
         <v>61</v>
@@ -6162,7 +6081,7 @@
         <v>76000.0</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U64" s="1" t="s">
         <v>31</v>
@@ -6203,7 +6122,7 @@
         <v>1.0</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q65" s="1" t="s">
         <v>36</v>
@@ -6215,7 +6134,7 @@
         <v>95000.0</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>31</v>
@@ -6256,7 +6175,7 @@
         <v>0.6</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>29</v>
@@ -6305,7 +6224,7 @@
         <v>1.0</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q67" s="1" t="s">
         <v>36</v>
@@ -6407,7 +6326,7 @@
         <v>1.0</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q69" s="1" t="s">
         <v>36</v>
@@ -6445,7 +6364,7 @@
         <v>1.0</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H70" s="4">
         <v>80.0</v>
@@ -6454,7 +6373,7 @@
         <v>125000.0</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>46</v>
@@ -6495,7 +6414,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>26</v>
@@ -6507,7 +6426,7 @@
         <v>1.0</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q71" s="1" t="s">
         <v>29</v>
@@ -6519,16 +6438,16 @@
         <v>62700.0</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U71" s="1" t="s">
         <v>39</v>
       </c>
       <c r="V71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W71" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="W71" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="72">
@@ -6554,7 +6473,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>26</v>
@@ -6566,7 +6485,7 @@
         <v>1.0</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q72" s="1" t="s">
         <v>36</v>
@@ -6658,7 +6577,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>26</v>
@@ -6670,7 +6589,7 @@
         <v>1.0</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q74" s="1" t="s">
         <v>36</v>
@@ -6682,7 +6601,7 @@
         <v>65575.0</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U74" s="1" t="s">
         <v>31</v>
@@ -6713,7 +6632,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>58</v>
@@ -6752,7 +6671,7 @@
         <v>94</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E76" s="4">
         <v>2.0</v>
@@ -6768,13 +6687,13 @@
         <v>58</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O76" s="5">
         <v>0.5</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q76" s="1" t="s">
         <v>61</v>
@@ -6790,7 +6709,7 @@
         <v>39</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W76" s="1"/>
     </row>
@@ -6825,7 +6744,7 @@
         <v>1.0</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q77" s="1" t="s">
         <v>36</v>
@@ -6876,7 +6795,7 @@
         <v>1.0</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q78" s="1" t="s">
         <v>36</v>
@@ -6905,7 +6824,7 @@
         <v>84</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E79" s="4">
         <v>17.0</v>
@@ -6927,10 +6846,10 @@
         <v>1.0</v>
       </c>
       <c r="P79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q79" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="R79" s="4">
         <v>5500.0</v>
@@ -6990,7 +6909,7 @@
         <v>72000.0</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U80" s="1" t="s">
         <v>31</v>
@@ -7078,7 +6997,7 @@
         <v>1.0</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q82" s="1" t="s">
         <v>29</v>
@@ -7090,7 +7009,7 @@
         <v>130000.0</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U82" s="1" t="s">
         <v>31</v>
@@ -7121,7 +7040,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>67</v>
@@ -7196,13 +7115,13 @@
         <v>60000.0</v>
       </c>
       <c r="T84" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V84" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="U84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V84" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="W84" s="1"/>
     </row>
@@ -7237,7 +7156,7 @@
         <v>1.0</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q85" s="1" t="s">
         <v>29</v>
@@ -7275,7 +7194,7 @@
         <v>5.0</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H86" s="4">
         <v>80.0</v>
@@ -7284,7 +7203,7 @@
         <v>130000.0</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>46</v>
@@ -7322,7 +7241,7 @@
         <v>1.0</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H87" s="4">
         <v>90.0</v>
@@ -7380,7 +7299,7 @@
         <v>1.0</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q88" s="1" t="s">
         <v>36</v>
@@ -7392,7 +7311,7 @@
         <v>53000.0</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U88" s="1" t="s">
         <v>39</v>
@@ -7423,7 +7342,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>26</v>
@@ -7435,7 +7354,7 @@
         <v>1.0</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q89" s="1" t="s">
         <v>36</v>
@@ -7447,13 +7366,13 @@
         <v>160000.0</v>
       </c>
       <c r="T89" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V89" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="U89" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V89" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="W89" s="1"/>
     </row>
@@ -7488,7 +7407,7 @@
         <v>1.0</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q90" s="1" t="s">
         <v>36</v>
@@ -7526,14 +7445,14 @@
         <v>1.0</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H91" s="4">
         <v>70.0</v>
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>46</v>
@@ -7584,7 +7503,7 @@
         <v>1.0</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q92" s="1" t="s">
         <v>36</v>
@@ -7625,7 +7544,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>26</v>
@@ -7640,7 +7559,7 @@
         <v>35</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R93" s="4">
         <v>4600.0</v>
@@ -7649,13 +7568,13 @@
         <v>60000.0</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U93" s="1" t="s">
         <v>39</v>
       </c>
       <c r="V93" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W93" s="1"/>
     </row>
@@ -7679,7 +7598,7 @@
         <v>0.5</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H94" s="4">
         <v>99.0</v>
@@ -7730,7 +7649,7 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>27</v>
@@ -7790,7 +7709,7 @@
         <v>1.0</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q96" s="1" t="s">
         <v>36</v>
@@ -7831,7 +7750,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>26</v>
@@ -7843,7 +7762,7 @@
         <v>1.0</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q97" s="1" t="s">
         <v>36</v>
@@ -7855,7 +7774,7 @@
         <v>76500.0</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U97" s="1" t="s">
         <v>31</v>
@@ -7886,7 +7805,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>26</v>
@@ -7910,7 +7829,7 @@
         <v>84500.0</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U98" s="1" t="s">
         <v>31</v>
@@ -7938,7 +7857,7 @@
         <v>5.0</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H99" s="4">
         <v>98.0</v>
@@ -8039,7 +7958,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>26</v>
@@ -8051,7 +7970,7 @@
         <v>1.0</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q101" s="1" t="s">
         <v>29</v>
@@ -8063,13 +7982,13 @@
         <v>66875.0</v>
       </c>
       <c r="T101" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="U101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V101" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="U101" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V101" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="W101" s="1"/>
     </row>
@@ -8169,7 +8088,7 @@
         <v>55000.0</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U103" s="1" t="s">
         <v>31</v>
@@ -8210,7 +8129,7 @@
         <v>1.0</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q104" s="1" t="s">
         <v>61</v>
@@ -8251,7 +8170,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>26</v>
@@ -8280,7 +8199,7 @@
       </c>
       <c r="V105" s="1"/>
       <c r="W105" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106">
@@ -8306,7 +8225,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>26</v>
@@ -8318,7 +8237,7 @@
         <v>1.0</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q106" s="1" t="s">
         <v>36</v>
@@ -8359,7 +8278,7 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>26</v>
@@ -8383,7 +8302,7 @@
         <v>110000.0</v>
       </c>
       <c r="T107" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U107" s="1" t="s">
         <v>31</v>
@@ -8513,7 +8432,7 @@
         <v>1.0</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H110" s="4">
         <v>85.0</v>
@@ -8650,7 +8569,7 @@
         <v>23</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="4">
@@ -8724,7 +8643,7 @@
         <v>1.0</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q114" s="1" t="s">
         <v>36</v>
@@ -8838,7 +8757,7 @@
         <v>62500.0</v>
       </c>
       <c r="T116" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U116" s="1" t="s">
         <v>31</v>
@@ -8866,7 +8785,7 @@
         <v>1.0</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="4">
@@ -8965,7 +8884,7 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>26</v>
@@ -9040,7 +8959,7 @@
         <v>87500.0</v>
       </c>
       <c r="T120" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U120" s="1" t="s">
         <v>31</v>
@@ -9056,7 +8975,7 @@
         <v>23</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>25</v>
@@ -9170,7 +9089,7 @@
         <v>2.0</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H123" s="4">
         <v>72.0</v>
@@ -9230,7 +9149,7 @@
         <v>1.0</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q124" s="1" t="s">
         <v>36</v>
@@ -9242,7 +9161,7 @@
         <v>97975.0</v>
       </c>
       <c r="T124" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U124" s="1" t="s">
         <v>31</v>
@@ -9270,7 +9189,7 @@
         <v>0.5</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H125" s="4">
         <v>85.0</v>
@@ -9319,7 +9238,7 @@
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N126" s="1" t="s">
         <v>59</v>
@@ -9391,7 +9310,7 @@
         <v>69375.0</v>
       </c>
       <c r="T127" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U127" s="1" t="s">
         <v>39</v>
@@ -9473,7 +9392,7 @@
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>26</v>
@@ -9536,7 +9455,7 @@
         <v>1.0</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q130" s="1" t="s">
         <v>36</v>
@@ -9548,7 +9467,7 @@
         <v>61250.0</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U130" s="1" t="s">
         <v>39</v>
@@ -9638,7 +9557,7 @@
         <v>1.0</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q132" s="1" t="s">
         <v>61</v>
@@ -9780,7 +9699,7 @@
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N135" s="1" t="s">
         <v>27</v>
@@ -9789,7 +9708,7 @@
         <v>1.0</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q135" s="1" t="s">
         <v>36</v>
@@ -9801,7 +9720,7 @@
         <v>66250.0</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U135" s="1" t="s">
         <v>31</v>
@@ -9820,7 +9739,7 @@
         <v>84</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E136" s="4">
         <v>18.0</v>
@@ -9893,7 +9812,7 @@
         <v>0.8</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q137" s="1" t="s">
         <v>61</v>
@@ -9944,7 +9863,7 @@
         <v>1.0</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q138" s="1" t="s">
         <v>61</v>
@@ -9956,7 +9875,7 @@
         <v>56250.0</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U138" s="1" t="s">
         <v>31</v>
@@ -9997,7 +9916,7 @@
         <v>1.0</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q139" s="1" t="s">
         <v>29</v>
@@ -10038,7 +9957,7 @@
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M140" s="1" t="s">
         <v>26</v>
@@ -10062,7 +9981,7 @@
         <v>99150.0</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U140" s="1" t="s">
         <v>31</v>
@@ -10132,7 +10051,7 @@
         <v>43</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E142" s="4">
         <v>10.0</v>
@@ -10144,7 +10063,7 @@
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M142" s="1" t="s">
         <v>26</v>
@@ -10156,7 +10075,7 @@
         <v>1.0</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q142" s="1" t="s">
         <v>36</v>
@@ -10168,7 +10087,7 @@
         <v>58750.0</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U142" s="1" t="s">
         <v>39</v>
@@ -10207,7 +10126,7 @@
         <v>1.0</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q143" s="1" t="s">
         <v>36</v>
@@ -10258,7 +10177,7 @@
         <v>1.0</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q144" s="1" t="s">
         <v>36</v>
@@ -10358,7 +10277,7 @@
         <v>1.0</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q146" s="1" t="s">
         <v>36</v>
@@ -10409,7 +10328,7 @@
         <v>1.0</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q147" s="1" t="s">
         <v>36</v>
@@ -10421,14 +10340,14 @@
         <v>72500.0</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U147" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V147" s="1"/>
       <c r="W147" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="148">
@@ -10505,7 +10424,7 @@
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>58</v>
@@ -10517,7 +10436,7 @@
         <v>1.0</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q149" s="1" t="s">
         <v>36</v>
@@ -10529,7 +10448,7 @@
         <v>88375.0</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U149" s="1" t="s">
         <v>31</v>
@@ -10570,7 +10489,7 @@
         <v>1.0</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q150" s="1" t="s">
         <v>36</v>
@@ -10578,8 +10497,8 @@
       <c r="R150" s="4">
         <v>6000.0</v>
       </c>
-      <c r="S150" s="1" t="s">
-        <v>261</v>
+      <c r="S150" s="7">
+        <v>80000.0</v>
       </c>
       <c r="T150" s="1"/>
       <c r="U150" s="1" t="s">
@@ -10621,7 +10540,7 @@
         <v>1.0</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q151" s="1" t="s">
         <v>36</v>
@@ -10662,7 +10581,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>26</v>
@@ -10674,7 +10593,7 @@
         <v>1.0</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q152" s="1" t="s">
         <v>36</v>
@@ -10688,10 +10607,10 @@
         <v>31</v>
       </c>
       <c r="V152" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="W152" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153">
@@ -10727,7 +10646,7 @@
         <v>1.0</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q153" s="1" t="s">
         <v>36</v>
@@ -10768,7 +10687,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M154" s="1" t="s">
         <v>26</v>
@@ -10780,7 +10699,7 @@
         <v>1.0</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q154" s="1" t="s">
         <v>29</v>
@@ -10862,7 +10781,7 @@
         <v>84</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E156" s="4">
         <v>20.0</v>
@@ -10935,7 +10854,7 @@
         <v>1.0</v>
       </c>
       <c r="P157" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q157" s="1" t="s">
         <v>29</v>
@@ -10943,11 +10862,11 @@
       <c r="R157" s="4">
         <v>5400.0</v>
       </c>
-      <c r="S157" s="1" t="s">
-        <v>272</v>
+      <c r="S157" s="7">
+        <v>70000.0</v>
       </c>
       <c r="T157" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="U157" s="1" t="s">
         <v>39</v>
@@ -10978,7 +10897,7 @@
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>26</v>
@@ -10990,7 +10909,7 @@
         <v>1.0</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q158" s="1" t="s">
         <v>29</v>
@@ -11031,7 +10950,7 @@
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>26</v>
@@ -11043,7 +10962,7 @@
         <v>1.0</v>
       </c>
       <c r="P159" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q159" s="1" t="s">
         <v>61</v>
@@ -11055,7 +10974,7 @@
         <v>4800.0</v>
       </c>
       <c r="T159" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="U159" s="1" t="s">
         <v>31</v>
@@ -11096,7 +11015,7 @@
         <v>1.0</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q160" s="1" t="s">
         <v>29</v>
@@ -11108,7 +11027,7 @@
         <v>68750.0</v>
       </c>
       <c r="T160" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="U160" s="1" t="s">
         <v>39</v>
@@ -11149,7 +11068,7 @@
         <v>1.0</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q161" s="1" t="s">
         <v>36</v>
@@ -11200,7 +11119,7 @@
         <v>0.8</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q162" s="1" t="s">
         <v>61</v>
@@ -11251,7 +11170,7 @@
         <v>1.0</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q163" s="1" t="s">
         <v>36</v>
@@ -11302,7 +11221,7 @@
         <v>1.0</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q164" s="1" t="s">
         <v>36</v>
@@ -11314,7 +11233,7 @@
         <v>56750.0</v>
       </c>
       <c r="T164" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="U164" s="1" t="s">
         <v>39</v>
@@ -11406,7 +11325,7 @@
         <v>1.0</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q166" s="1" t="s">
         <v>36</v>
@@ -11559,7 +11478,7 @@
         <v>1.0</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q169" s="1" t="s">
         <v>61</v>
@@ -11571,7 +11490,7 @@
         <v>210000.0</v>
       </c>
       <c r="T169" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="U169" s="1" t="s">
         <v>31</v>
@@ -11602,7 +11521,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>67</v>
@@ -11614,7 +11533,7 @@
         <v>1.0</v>
       </c>
       <c r="P170" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q170" s="1" t="s">
         <v>29</v>
@@ -11622,8 +11541,8 @@
       <c r="R170" s="4">
         <v>4905.0</v>
       </c>
-      <c r="S170" s="1" t="s">
-        <v>289</v>
+      <c r="S170" s="7">
+        <v>61312.5</v>
       </c>
       <c r="T170" s="1"/>
       <c r="U170" s="1" t="s">
@@ -11665,7 +11584,7 @@
         <v>1.0</v>
       </c>
       <c r="P171" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q171" s="1" t="s">
         <v>36</v>
@@ -11677,7 +11596,7 @@
         <v>110000.0</v>
       </c>
       <c r="T171" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="U171" s="1" t="s">
         <v>31</v>
@@ -11718,7 +11637,7 @@
         <v>1.0</v>
       </c>
       <c r="P172" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q172" s="1" t="s">
         <v>61</v>
@@ -11735,7 +11654,7 @@
       </c>
       <c r="V172" s="1"/>
       <c r="W172" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="173">
@@ -11924,7 +11843,7 @@
         <v>1.0</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q176" s="1" t="s">
         <v>29</v>
@@ -11975,7 +11894,7 @@
         <v>1.0</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q177" s="1" t="s">
         <v>36</v>
@@ -12026,7 +11945,7 @@
         <v>1.0</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q178" s="1" t="s">
         <v>36</v>
@@ -12128,7 +12047,7 @@
         <v>1.0</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q180" s="1" t="s">
         <v>36</v>
@@ -12140,7 +12059,7 @@
         <v>67500.0</v>
       </c>
       <c r="T180" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U180" s="1" t="s">
         <v>39</v>
@@ -12181,7 +12100,7 @@
         <v>1.0</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q181" s="1" t="s">
         <v>36</v>
@@ -12232,7 +12151,7 @@
         <v>1.0</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q182" s="1" t="s">
         <v>29</v>
@@ -12244,7 +12163,7 @@
         <v>32500.0</v>
       </c>
       <c r="T182" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="U182" s="1" t="s">
         <v>39</v>
@@ -12387,7 +12306,7 @@
         <v>1.0</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q185" s="1" t="s">
         <v>36</v>
@@ -12489,10 +12408,10 @@
         <v>1.0</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q187" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="R187" s="4">
         <v>4700.0</v>
@@ -12501,7 +12420,7 @@
         <v>70000.0</v>
       </c>
       <c r="T187" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="U187" s="1" t="s">
         <v>31</v>
@@ -12593,7 +12512,7 @@
         <v>1.0</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q189" s="1" t="s">
         <v>36</v>
@@ -12605,7 +12524,7 @@
         <v>50000.0</v>
       </c>
       <c r="T189" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="U189" s="1" t="s">
         <v>39</v>
@@ -12646,16 +12565,16 @@
         <v>1.0</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q190" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R190" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="S190" s="1" t="s">
-        <v>309</v>
+      <c r="R190" s="7">
+        <v>4640.71</v>
+      </c>
+      <c r="S190" s="7">
+        <v>58008.87</v>
       </c>
       <c r="T190" s="1"/>
       <c r="U190" s="1" t="s">
@@ -12697,7 +12616,7 @@
         <v>1.0</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q191" s="1" t="s">
         <v>36</v>
@@ -12799,7 +12718,7 @@
         <v>1.0</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q193" s="1" t="s">
         <v>29</v>
@@ -12837,7 +12756,7 @@
         <v>12.0</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H194" s="4">
         <v>90.0</v>
@@ -12897,7 +12816,7 @@
         <v>1.0</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q195" s="1" t="s">
         <v>36</v>
@@ -12974,7 +12893,7 @@
         <v>23</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>25</v>
@@ -12999,7 +12918,7 @@
         <v>1.0</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q197" s="1" t="s">
         <v>36</v>
@@ -13011,7 +12930,7 @@
         <v>98000.0</v>
       </c>
       <c r="T197" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="U197" s="1" t="s">
         <v>31</v>
@@ -13154,7 +13073,7 @@
         <v>1.0</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q200" s="1" t="s">
         <v>36</v>
@@ -13166,13 +13085,13 @@
         <v>26400.0</v>
       </c>
       <c r="T200" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="U200" s="1" t="s">
         <v>39</v>
       </c>
       <c r="V200" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="W200" s="1"/>
     </row>
@@ -13199,7 +13118,7 @@
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M201" s="1" t="s">
         <v>58</v>
@@ -13211,19 +13130,19 @@
         <v>1.0</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q201" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R201" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="S201" s="1" t="s">
-        <v>321</v>
+      <c r="R201" s="7">
+        <v>4239.17</v>
+      </c>
+      <c r="S201" s="7">
+        <v>60757.96</v>
       </c>
       <c r="T201" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="U201" s="1" t="s">
         <v>31</v>
@@ -13253,7 +13172,7 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
       <c r="M202" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="N202" s="1" t="s">
         <v>33</v>
@@ -13311,7 +13230,7 @@
         <v>1.0</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="Q203" s="1" t="s">
         <v>61</v>
@@ -13374,7 +13293,7 @@
         <v>63750.0</v>
       </c>
       <c r="T204" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="U204" s="1" t="s">
         <v>39</v>
@@ -13390,7 +13309,7 @@
         <v>23</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>47</v>
@@ -13405,7 +13324,7 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M205" s="1" t="s">
         <v>58</v>
@@ -13417,7 +13336,7 @@
         <v>1.0</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="Q205" s="1" t="s">
         <v>29</v>
@@ -13468,7 +13387,7 @@
         <v>1.0</v>
       </c>
       <c r="P206" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q206" s="1" t="s">
         <v>36</v>
@@ -13519,7 +13438,7 @@
         <v>1.0</v>
       </c>
       <c r="P207" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q207" s="1" t="s">
         <v>36</v>
@@ -13570,7 +13489,7 @@
         <v>1.0</v>
       </c>
       <c r="P208" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q208" s="1" t="s">
         <v>36</v>
@@ -13621,7 +13540,7 @@
         <v>1.0</v>
       </c>
       <c r="P209" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Q209" s="1" t="s">
         <v>29</v>
@@ -13635,7 +13554,7 @@
         <v>31</v>
       </c>
       <c r="V209" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="W209" s="1"/>
     </row>
@@ -13672,7 +13591,7 @@
         <v>1.0</v>
       </c>
       <c r="P210" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="Q210" s="1" t="s">
         <v>36</v>
@@ -13701,7 +13620,7 @@
         <v>40</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E211" s="4">
         <v>20.0</v>
@@ -13723,7 +13642,7 @@
         <v>1.0</v>
       </c>
       <c r="P211" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q211" s="1" t="s">
         <v>61</v>
@@ -13735,13 +13654,13 @@
         <v>25000.0</v>
       </c>
       <c r="T211" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="U211" s="1" t="s">
         <v>39</v>
       </c>
       <c r="V211" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="W211" s="1"/>
     </row>
@@ -13778,7 +13697,7 @@
         <v>1.0</v>
       </c>
       <c r="P212" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="Q212" s="1" t="s">
         <v>36</v>
@@ -13827,7 +13746,7 @@
         <v>1.0</v>
       </c>
       <c r="P213" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q213" s="1" t="s">
         <v>36</v>
@@ -13890,7 +13809,7 @@
         <v>90000.0</v>
       </c>
       <c r="T214" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U214" s="1" t="s">
         <v>31</v>
@@ -13928,7 +13847,7 @@
         <v>49</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
@@ -13963,7 +13882,7 @@
         <v>3.0</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H216" s="4">
         <v>100.0</v>
@@ -13972,7 +13891,7 @@
         <v>125000.0</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K216" s="1" t="s">
         <v>46</v>
@@ -14014,7 +13933,7 @@
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
       <c r="M217" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="N217" s="1" t="s">
         <v>33</v>
@@ -14023,7 +13942,7 @@
         <v>0.8</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q217" s="1" t="s">
         <v>36</v>
@@ -14074,7 +13993,7 @@
         <v>1.0</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q218" s="1" t="s">
         <v>36</v>
@@ -14125,7 +14044,7 @@
         <v>1.0</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="Q219" s="1" t="s">
         <v>61</v>
@@ -14178,7 +14097,7 @@
         <v>1.0</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="Q220" s="1" t="s">
         <v>29</v>
@@ -14190,7 +14109,7 @@
         <v>61000.0</v>
       </c>
       <c r="T220" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="U220" s="1" t="s">
         <v>31</v>
@@ -14243,7 +14162,7 @@
         <v>55000.0</v>
       </c>
       <c r="T221" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U221" s="1" t="s">
         <v>31</v>
@@ -14271,7 +14190,7 @@
         <v>3.0</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H222" s="4">
         <v>85.0</v>
@@ -14280,7 +14199,7 @@
         <v>140000.0</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K222" s="1" t="s">
         <v>46</v>
@@ -14409,7 +14328,7 @@
         <v>43</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E225" s="4">
         <v>4.0</v>
@@ -14460,7 +14379,7 @@
         <v>24</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E226" s="4">
         <v>12.0</v>
@@ -14472,7 +14391,7 @@
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
       <c r="L226" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M226" s="1" t="s">
         <v>26</v>
@@ -14484,7 +14403,7 @@
         <v>1.0</v>
       </c>
       <c r="P226" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q226" s="1" t="s">
         <v>36</v>
@@ -14496,7 +14415,7 @@
         <v>130000.0</v>
       </c>
       <c r="T226" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="U226" s="1" t="s">
         <v>31</v>
@@ -14527,10 +14446,10 @@
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="N227" s="1" t="s">
         <v>33</v>
@@ -14539,7 +14458,7 @@
         <v>1.0</v>
       </c>
       <c r="P227" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="Q227" s="1" t="s">
         <v>36</v>
@@ -14641,7 +14560,7 @@
         <v>0.8</v>
       </c>
       <c r="P229" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Q229" s="1" t="s">
         <v>36</v>
@@ -14653,7 +14572,7 @@
         <v>100000.0</v>
       </c>
       <c r="T229" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="U229" s="1" t="s">
         <v>31</v>
@@ -14672,7 +14591,7 @@
         <v>43</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E230" s="4">
         <v>4.0</v>
@@ -14694,7 +14613,7 @@
         <v>0.8</v>
       </c>
       <c r="P230" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="Q230" s="1" t="s">
         <v>36</v>
@@ -14784,7 +14703,7 @@
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
       <c r="L232" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M232" s="1" t="s">
         <v>26</v>
@@ -14796,7 +14715,7 @@
         <v>1.0</v>
       </c>
       <c r="P232" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q232" s="1" t="s">
         <v>36</v>
@@ -14873,7 +14792,7 @@
         <v>23</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>25</v>
@@ -14898,7 +14817,7 @@
         <v>1.0</v>
       </c>
       <c r="P234" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="Q234" s="1" t="s">
         <v>36</v>
@@ -14945,19 +14864,19 @@
         <v>1.0</v>
       </c>
       <c r="P235" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q235" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R235" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="S235" s="1" t="s">
-        <v>359</v>
+      <c r="R235" s="7">
+        <v>6500.0</v>
+      </c>
+      <c r="S235" s="7">
+        <v>81250.0</v>
       </c>
       <c r="T235" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="U235" s="1" t="s">
         <v>31</v>
@@ -14998,7 +14917,7 @@
         <v>1.0</v>
       </c>
       <c r="P236" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="Q236" s="1" t="s">
         <v>36</v>
@@ -15040,7 +14959,7 @@
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
       <c r="M237" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="N237" s="1" t="s">
         <v>27</v>
@@ -15065,7 +14984,7 @@
         <v>39</v>
       </c>
       <c r="V237" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="W237" s="1"/>
     </row>
@@ -15114,7 +15033,7 @@
         <v>66250.0</v>
       </c>
       <c r="T238" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="U238" s="1" t="s">
         <v>31</v>
@@ -15155,7 +15074,7 @@
         <v>1.0</v>
       </c>
       <c r="P239" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="Q239" s="1" t="s">
         <v>36</v>
@@ -15163,8 +15082,8 @@
       <c r="R239" s="4">
         <v>3800.0</v>
       </c>
-      <c r="S239" s="1" t="s">
-        <v>366</v>
+      <c r="S239" s="7">
+        <v>48700.0</v>
       </c>
       <c r="T239" s="1"/>
       <c r="U239" s="1" t="s">
@@ -15206,7 +15125,7 @@
         <v>1.0</v>
       </c>
       <c r="P240" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="Q240" s="1" t="s">
         <v>36</v>
@@ -15214,8 +15133,8 @@
       <c r="R240" s="4">
         <v>5300.0</v>
       </c>
-      <c r="S240" s="1" t="s">
-        <v>368</v>
+      <c r="S240" s="7">
+        <v>66250.0</v>
       </c>
       <c r="T240" s="1"/>
       <c r="U240" s="1" t="s">
@@ -15257,7 +15176,7 @@
         <v>1.0</v>
       </c>
       <c r="P241" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="Q241" s="1" t="s">
         <v>29</v>
@@ -15269,7 +15188,7 @@
         <v>70000.0</v>
       </c>
       <c r="T241" s="1" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="U241" s="1" t="s">
         <v>31</v>
@@ -15346,7 +15265,7 @@
         <v>2.0</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H243" s="4">
         <v>80.0</v>
@@ -15358,7 +15277,7 @@
         <v>49</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
@@ -15396,7 +15315,7 @@
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="M244" s="1" t="s">
         <v>26</v>
@@ -15408,7 +15327,7 @@
         <v>1.0</v>
       </c>
       <c r="P244" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q244" s="1" t="s">
         <v>36</v>
@@ -15420,7 +15339,7 @@
         <v>105000.0</v>
       </c>
       <c r="T244" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="U244" s="1" t="s">
         <v>31</v>
@@ -15461,7 +15380,7 @@
         <v>1.0</v>
       </c>
       <c r="P245" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="Q245" s="1" t="s">
         <v>36</v>
@@ -15478,7 +15397,7 @@
       </c>
       <c r="V245" s="1"/>
       <c r="W245" s="2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="246">
@@ -15514,7 +15433,7 @@
         <v>1.0</v>
       </c>
       <c r="P246" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="Q246" s="1" t="s">
         <v>36</v>
@@ -15555,10 +15474,10 @@
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="N247" s="1" t="s">
         <v>27</v>
@@ -15567,7 +15486,7 @@
         <v>1.0</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="Q247" s="1" t="s">
         <v>29</v>
@@ -15579,7 +15498,7 @@
         <v>290000.0</v>
       </c>
       <c r="T247" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="U247" s="1" t="s">
         <v>31</v>
@@ -15711,7 +15630,7 @@
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
       <c r="M250" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="N250" s="1" t="s">
         <v>59</v>
@@ -15732,7 +15651,7 @@
         <v>220000.0</v>
       </c>
       <c r="T250" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="U250" s="1" t="s">
         <v>31</v>
@@ -15822,7 +15741,7 @@
         <v>1.0</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q252" s="1" t="s">
         <v>61</v>
@@ -15912,7 +15831,7 @@
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>26</v>
@@ -15975,7 +15894,7 @@
         <v>1.0</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="Q255" s="1" t="s">
         <v>29</v>
@@ -16026,7 +15945,7 @@
         <v>1.0</v>
       </c>
       <c r="P256" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="Q256" s="1" t="s">
         <v>36</v>
@@ -16038,7 +15957,7 @@
         <v>100000.0</v>
       </c>
       <c r="T256" s="1" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="U256" s="1" t="s">
         <v>31</v>
@@ -16066,7 +15985,7 @@
         <v>11.0</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H257" s="4">
         <v>150.0</v>
@@ -16078,7 +15997,7 @@
         <v>49</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L257" s="1"/>
       <c r="M257" s="1"/>
@@ -16153,7 +16072,7 @@
         <v>40</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E259" s="4">
         <v>20.0</v>
@@ -16177,7 +16096,7 @@
         <v>1.0</v>
       </c>
       <c r="P259" s="1" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="Q259" s="1" t="s">
         <v>36</v>
@@ -16189,7 +16108,7 @@
         <v>51250.0</v>
       </c>
       <c r="T259" s="1" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="U259" s="1" t="s">
         <v>31</v>
@@ -16232,7 +16151,7 @@
         <v>1.0</v>
       </c>
       <c r="P260" s="1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="Q260" s="1" t="s">
         <v>61</v>
@@ -16281,7 +16200,7 @@
         <v>1.0</v>
       </c>
       <c r="P261" s="1" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="Q261" s="1" t="s">
         <v>36</v>
@@ -16293,7 +16212,7 @@
         <v>76250.0</v>
       </c>
       <c r="T261" s="1" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="U261" s="1" t="s">
         <v>31</v>
@@ -16334,7 +16253,7 @@
         <v>0.8</v>
       </c>
       <c r="P262" s="1" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="Q262" s="1" t="s">
         <v>36</v>
@@ -16346,7 +16265,7 @@
         <v>47000.0</v>
       </c>
       <c r="T262" s="1" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="U262" s="1" t="s">
         <v>39</v>
@@ -16387,7 +16306,7 @@
         <v>1.0</v>
       </c>
       <c r="P263" s="1" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="Q263" s="1" t="s">
         <v>29</v>
@@ -16438,7 +16357,7 @@
         <v>1.0</v>
       </c>
       <c r="P264" s="1" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="Q264" s="1" t="s">
         <v>36</v>
@@ -16464,7 +16383,7 @@
         <v>23</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>25</v>
@@ -16479,10 +16398,10 @@
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
       <c r="L265" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="N265" s="1" t="s">
         <v>97</v>
@@ -16507,7 +16426,7 @@
         <v>31</v>
       </c>
       <c r="V265" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="W265" s="1"/>
     </row>
@@ -16582,7 +16501,7 @@
         <v>2.0</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H267" s="4">
         <v>90.0</v>
@@ -16617,7 +16536,7 @@
         <v>23</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="4">
@@ -16640,7 +16559,7 @@
         <v>0.8</v>
       </c>
       <c r="P268" s="1" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="Q268" s="1" t="s">
         <v>36</v>
@@ -16678,7 +16597,7 @@
         <v>4.0</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H269" s="4">
         <v>90.0</v>
@@ -16690,7 +16609,7 @@
         <v>49</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L269" s="1"/>
       <c r="M269" s="1"/>
@@ -16704,7 +16623,7 @@
       <c r="U269" s="1"/>
       <c r="V269" s="1"/>
       <c r="W269" s="1" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="270">
@@ -16740,7 +16659,7 @@
         <v>1.0</v>
       </c>
       <c r="P270" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q270" s="1" t="s">
         <v>36</v>
@@ -16752,7 +16671,7 @@
         <v>91000.0</v>
       </c>
       <c r="T270" s="1" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="U270" s="1" t="s">
         <v>39</v>
@@ -16793,7 +16712,7 @@
         <v>1.0</v>
       </c>
       <c r="P271" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q271" s="1" t="s">
         <v>36</v>
@@ -16846,7 +16765,7 @@
         <v>1.0</v>
       </c>
       <c r="P272" s="1" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="Q272" s="1" t="s">
         <v>29</v>
@@ -16858,7 +16777,7 @@
         <v>125000.0</v>
       </c>
       <c r="T272" s="1" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="U272" s="1" t="s">
         <v>31</v>
@@ -16889,10 +16808,10 @@
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="M273" s="1" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="N273" s="1" t="s">
         <v>27</v>
@@ -16901,7 +16820,7 @@
         <v>1.0</v>
       </c>
       <c r="P273" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="Q273" s="1" t="s">
         <v>36</v>
@@ -16942,7 +16861,7 @@
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="M274" s="1" t="s">
         <v>26</v>
@@ -16954,7 +16873,7 @@
         <v>1.0</v>
       </c>
       <c r="P274" s="1" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="Q274" s="1" t="s">
         <v>29</v>
@@ -16970,7 +16889,7 @@
         <v>31</v>
       </c>
       <c r="V274" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="W274" s="1"/>
     </row>
@@ -16982,7 +16901,7 @@
         <v>42</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>47</v>
@@ -17044,7 +16963,7 @@
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
       <c r="L276" s="1" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="M276" s="1" t="s">
         <v>58</v>
@@ -17056,7 +16975,7 @@
         <v>1.0</v>
       </c>
       <c r="P276" s="1" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="Q276" s="1" t="s">
         <v>29</v>
@@ -17068,7 +16987,7 @@
         <v>63500.0</v>
       </c>
       <c r="T276" s="1" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="U276" s="1" t="s">
         <v>31</v>
@@ -17109,7 +17028,7 @@
         <v>1.0</v>
       </c>
       <c r="P277" s="1" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="Q277" s="1" t="s">
         <v>36</v>
@@ -17135,7 +17054,7 @@
         <v>42</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>47</v>
@@ -17147,7 +17066,7 @@
         <v>4.0</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="H278" s="4">
         <v>80.0</v>
@@ -17173,7 +17092,7 @@
       <c r="U278" s="1"/>
       <c r="V278" s="1"/>
       <c r="W278" s="2" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="279">
@@ -17209,7 +17128,7 @@
         <v>1.0</v>
       </c>
       <c r="P279" s="1" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="Q279" s="1" t="s">
         <v>29</v>
@@ -17226,7 +17145,7 @@
       </c>
       <c r="V279" s="1"/>
       <c r="W279" s="2" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="280">
@@ -17274,7 +17193,7 @@
         <v>65625.0</v>
       </c>
       <c r="T280" s="1" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="U280" s="1" t="s">
         <v>31</v>
@@ -17327,7 +17246,7 @@
         <v>77612.0</v>
       </c>
       <c r="T281" s="1" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="U281" s="1" t="s">
         <v>31</v>
@@ -17368,7 +17287,7 @@
         <v>1.0</v>
       </c>
       <c r="P282" s="1" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="Q282" s="1" t="s">
         <v>61</v>
@@ -17380,7 +17299,7 @@
         <v>95000.0</v>
       </c>
       <c r="T282" s="1" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="U282" s="1" t="s">
         <v>31</v>
@@ -17421,7 +17340,7 @@
         <v>1.0</v>
       </c>
       <c r="P283" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q283" s="1" t="s">
         <v>36</v>
@@ -17433,7 +17352,7 @@
         <v>75000.0</v>
       </c>
       <c r="T283" s="1" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="U283" s="1" t="s">
         <v>31</v>
@@ -17476,10 +17395,10 @@
         <v>1.0</v>
       </c>
       <c r="P284" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q284" s="1" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="R284" s="4">
         <v>5000.0</v>
@@ -17678,7 +17597,7 @@
         <v>1.0</v>
       </c>
       <c r="P288" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="Q288" s="1" t="s">
         <v>29</v>
@@ -17716,7 +17635,7 @@
         <v>3.0</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="H289" s="4">
         <v>105.0</v>
@@ -17725,7 +17644,7 @@
         <v>136000.0</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K289" s="1" t="s">
         <v>46</v>
@@ -17829,7 +17748,7 @@
         <v>0.8</v>
       </c>
       <c r="P291" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q291" s="1" t="s">
         <v>29</v>
@@ -17880,7 +17799,7 @@
         <v>1.0</v>
       </c>
       <c r="P292" s="1" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="Q292" s="1" t="s">
         <v>61</v>
@@ -17933,7 +17852,7 @@
         <v>1.0</v>
       </c>
       <c r="P293" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="Q293" s="1" t="s">
         <v>36</v>
@@ -18082,7 +18001,7 @@
         <v>1.0</v>
       </c>
       <c r="P296" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q296" s="1" t="s">
         <v>36</v>
@@ -18123,10 +18042,10 @@
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
       <c r="L297" s="1" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="M297" s="1" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="N297" s="1" t="s">
         <v>27</v>
@@ -18147,7 +18066,7 @@
         <v>100000.0</v>
       </c>
       <c r="T297" s="1" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="U297" s="1" t="s">
         <v>31</v>
@@ -18178,10 +18097,10 @@
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
       <c r="L298" s="1" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="M298" s="1" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="N298" s="1" t="s">
         <v>27</v>
@@ -18190,7 +18109,7 @@
         <v>1.0</v>
       </c>
       <c r="P298" s="1" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="Q298" s="1" t="s">
         <v>61</v>
@@ -18202,13 +18121,13 @@
         <v>148000.0</v>
       </c>
       <c r="T298" s="1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="U298" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V298" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="W298" s="1"/>
     </row>
@@ -18245,7 +18164,7 @@
         <v>1.0</v>
       </c>
       <c r="P299" s="1" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="Q299" s="1" t="s">
         <v>29</v>
@@ -18292,7 +18211,7 @@
         <v>0.6</v>
       </c>
       <c r="P300" s="1" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="Q300" s="1" t="s">
         <v>36</v>
@@ -18343,7 +18262,7 @@
         <v>1.0</v>
       </c>
       <c r="P301" s="1" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="Q301" s="1" t="s">
         <v>36</v>
@@ -18435,7 +18354,7 @@
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
       <c r="L303" s="1" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="M303" s="1" t="s">
         <v>26</v>
@@ -18447,7 +18366,7 @@
         <v>1.0</v>
       </c>
       <c r="P303" s="1" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="Q303" s="1" t="s">
         <v>29</v>
@@ -18476,7 +18395,7 @@
         <v>24</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E304" s="4">
         <v>11.0</v>
@@ -18485,7 +18404,7 @@
         <v>1.0</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="H304" s="4">
         <v>130.0</v>
@@ -18494,7 +18413,7 @@
         <v>155000.0</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K304" s="1" t="s">
         <v>46</v>
@@ -18535,7 +18454,7 @@
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
       <c r="L305" s="1" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="M305" s="1" t="s">
         <v>26</v>
@@ -18636,7 +18555,7 @@
         <v>1.0</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H307" s="4">
         <v>120.0</v>
@@ -18686,7 +18605,7 @@
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
       <c r="L308" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M308" s="1" t="s">
         <v>37</v>
@@ -18749,7 +18668,7 @@
         <v>1.0</v>
       </c>
       <c r="P309" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="Q309" s="1" t="s">
         <v>36</v>
@@ -18791,7 +18710,7 @@
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
       <c r="M310" s="1" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="N310" s="1" t="s">
         <v>27</v>
@@ -18891,7 +18810,7 @@
         <v>0.0</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="H312" s="4">
         <v>88.0</v>
@@ -18938,7 +18857,7 @@
         <v>1.0</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="H313" s="4">
         <v>80.0</v>
@@ -18998,7 +18917,7 @@
         <v>1.0</v>
       </c>
       <c r="P314" s="1" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="Q314" s="1" t="s">
         <v>61</v>
@@ -19010,7 +18929,7 @@
         <v>54000.0</v>
       </c>
       <c r="T314" s="1" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="U314" s="1" t="s">
         <v>31</v>
@@ -19063,7 +18982,7 @@
         <v>53750.0</v>
       </c>
       <c r="T315" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U315" s="1" t="s">
         <v>31</v>
@@ -19094,7 +19013,7 @@
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
       <c r="L316" s="1" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="M316" s="1" t="s">
         <v>58</v>
@@ -19155,7 +19074,7 @@
         <v>1.0</v>
       </c>
       <c r="P317" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q317" s="1" t="s">
         <v>36</v>
@@ -19206,7 +19125,7 @@
         <v>1.0</v>
       </c>
       <c r="P318" s="1" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="Q318" s="1" t="s">
         <v>36</v>
@@ -19255,7 +19174,7 @@
         <v>1.0</v>
       </c>
       <c r="P319" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q319" s="1" t="s">
         <v>36</v>
@@ -19306,7 +19225,7 @@
         <v>1.0</v>
       </c>
       <c r="P320" s="1" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="Q320" s="1" t="s">
         <v>29</v>
@@ -19351,16 +19270,16 @@
         <v>26</v>
       </c>
       <c r="N321" s="1" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="O321" s="5">
         <v>1.0</v>
       </c>
       <c r="P321" s="1" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="Q321" s="1" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="R321" s="4">
         <v>6255.0</v>
@@ -19408,7 +19327,7 @@
         <v>1.0</v>
       </c>
       <c r="P322" s="1" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="Q322" s="1" t="s">
         <v>36</v>
@@ -19446,7 +19365,7 @@
         <v>2.0</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="H323" s="4">
         <v>120.0</v>
@@ -19502,7 +19421,7 @@
         <v>1.0</v>
       </c>
       <c r="P324" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q324" s="1" t="s">
         <v>61</v>
@@ -19531,7 +19450,7 @@
         <v>40</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E325" s="4">
         <v>13.0</v>
@@ -19540,7 +19459,7 @@
         <v>1.0</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H325" s="4">
         <v>90.0</v>
@@ -19566,7 +19485,7 @@
       <c r="U325" s="1"/>
       <c r="V325" s="1"/>
       <c r="W325" s="2" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="326">
@@ -19580,7 +19499,7 @@
         <v>109</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E326" s="4">
         <v>27.0</v>
@@ -19593,7 +19512,7 @@
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
       <c r="M326" s="1" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="N326" s="1" t="s">
         <v>59</v>
@@ -19614,7 +19533,7 @@
         <v>72500.0</v>
       </c>
       <c r="T326" s="1" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="U326" s="1" t="s">
         <v>31</v>
@@ -19693,7 +19612,7 @@
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
       <c r="M328" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="N328" s="1" t="s">
         <v>27</v>
@@ -19702,7 +19621,7 @@
         <v>1.0</v>
       </c>
       <c r="P328" s="1" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="Q328" s="1" t="s">
         <v>36</v>
@@ -19755,7 +19674,7 @@
         <v>1.0</v>
       </c>
       <c r="P329" s="1" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="Q329" s="1" t="s">
         <v>36</v>
@@ -19796,7 +19715,7 @@
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
       <c r="L330" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M330" s="1" t="s">
         <v>26</v>
@@ -19808,7 +19727,7 @@
         <v>1.0</v>
       </c>
       <c r="P330" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="Q330" s="1" t="s">
         <v>29</v>
@@ -19820,7 +19739,7 @@
         <v>77500.0</v>
       </c>
       <c r="T330" s="1" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="U330" s="1" t="s">
         <v>31</v>
@@ -19861,7 +19780,7 @@
         <v>1.0</v>
       </c>
       <c r="P331" s="1" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="Q331" s="1" t="s">
         <v>29</v>
@@ -19897,7 +19816,7 @@
         <v>2.0</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="H332" s="4">
         <v>110.0</v>
@@ -19957,7 +19876,7 @@
         <v>0.9</v>
       </c>
       <c r="P333" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q333" s="1" t="s">
         <v>29</v>
@@ -19998,7 +19917,7 @@
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
       <c r="L334" s="1" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="M334" s="1" t="s">
         <v>26</v>
@@ -20010,7 +19929,7 @@
         <v>1.0</v>
       </c>
       <c r="P334" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q334" s="1" t="s">
         <v>36</v>
@@ -20022,7 +19941,7 @@
         <v>75000.0</v>
       </c>
       <c r="T334" s="1" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="U334" s="1" t="s">
         <v>39</v>
@@ -20061,7 +19980,7 @@
         <v>1.0</v>
       </c>
       <c r="P335" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q335" s="1" t="s">
         <v>61</v>
@@ -20102,7 +20021,7 @@
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
       <c r="L336" s="1" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="M336" s="1" t="s">
         <v>37</v>
@@ -20114,7 +20033,7 @@
         <v>1.0</v>
       </c>
       <c r="P336" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q336" s="1" t="s">
         <v>61</v>
@@ -20130,7 +20049,7 @@
         <v>39</v>
       </c>
       <c r="V336" s="2" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="W336" s="1"/>
     </row>
@@ -20165,7 +20084,7 @@
         <v>1.0</v>
       </c>
       <c r="P337" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q337" s="1" t="s">
         <v>36</v>
@@ -20206,7 +20125,7 @@
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
       <c r="L338" s="1" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="M338" s="1" t="s">
         <v>26</v>
@@ -20218,7 +20137,7 @@
         <v>1.0</v>
       </c>
       <c r="P338" s="1" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="Q338" s="1" t="s">
         <v>36</v>
@@ -20230,7 +20149,7 @@
         <v>122000.0</v>
       </c>
       <c r="T338" s="1" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="U338" s="1" t="s">
         <v>31</v>
@@ -20377,7 +20296,7 @@
         <v>1.0</v>
       </c>
       <c r="P341" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q341" s="1" t="s">
         <v>29</v>
@@ -20406,7 +20325,7 @@
         <v>84</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="E342" s="4">
         <v>23.0</v>
@@ -20430,7 +20349,7 @@
         <v>1.0</v>
       </c>
       <c r="P342" s="1" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="Q342" s="1" t="s">
         <v>29</v>
@@ -20483,7 +20402,7 @@
         <v>1.0</v>
       </c>
       <c r="P343" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q343" s="1" t="s">
         <v>36</v>
@@ -20524,7 +20443,7 @@
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
       <c r="L344" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="M344" s="1" t="s">
         <v>58</v>
@@ -20548,16 +20467,16 @@
         <v>54000.0</v>
       </c>
       <c r="T344" s="1" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="U344" s="1" t="s">
         <v>39</v>
       </c>
       <c r="V344" s="1" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="W344" s="2" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="345">
@@ -20593,7 +20512,7 @@
         <v>1.0</v>
       </c>
       <c r="P345" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q345" s="1" t="s">
         <v>61</v>
@@ -20646,7 +20565,7 @@
         <v>1.0</v>
       </c>
       <c r="P346" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q346" s="1" t="s">
         <v>29</v>
@@ -20687,7 +20606,7 @@
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
       <c r="L347" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="M347" s="1" t="s">
         <v>26</v>
@@ -20711,7 +20630,7 @@
         <v>64000.0</v>
       </c>
       <c r="T347" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="U347" s="1" t="s">
         <v>39</v>
@@ -20752,7 +20671,7 @@
         <v>1.0</v>
       </c>
       <c r="P348" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="Q348" s="1" t="s">
         <v>29</v>
@@ -20794,7 +20713,7 @@
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
       <c r="M349" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="N349" s="1" t="s">
         <v>33</v>
@@ -20803,7 +20722,7 @@
         <v>1.0</v>
       </c>
       <c r="P349" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="Q349" s="1" t="s">
         <v>36</v>
@@ -20815,7 +20734,7 @@
         <v>2000.0</v>
       </c>
       <c r="T349" s="1" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="U349" s="1" t="s">
         <v>39</v>
@@ -20856,7 +20775,7 @@
         <v>1.0</v>
       </c>
       <c r="P350" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q350" s="1" t="s">
         <v>36</v>
@@ -20907,7 +20826,7 @@
         <v>1.0</v>
       </c>
       <c r="P351" s="1" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="Q351" s="1" t="s">
         <v>36</v>
@@ -20943,7 +20862,7 @@
         <v>1.0</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H352" s="4">
         <v>85.0</v>
@@ -20955,7 +20874,7 @@
         <v>45</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L352" s="1"/>
       <c r="M352" s="1"/>
@@ -20993,7 +20912,7 @@
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
       <c r="L353" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M353" s="1" t="s">
         <v>67</v>
@@ -21005,7 +20924,7 @@
         <v>1.0</v>
       </c>
       <c r="P353" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q353" s="1" t="s">
         <v>36</v>
@@ -21017,13 +20936,13 @@
         <v>60000.0</v>
       </c>
       <c r="T353" s="1" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="U353" s="1" t="s">
         <v>39</v>
       </c>
       <c r="V353" s="2" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="W353" s="1"/>
     </row>
@@ -21057,7 +20976,7 @@
         <v>49</v>
       </c>
       <c r="K354" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L354" s="1"/>
       <c r="M354" s="1"/>
@@ -21139,7 +21058,7 @@
         <v>2.0</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="H356" s="4">
         <v>97.0</v>
@@ -21191,13 +21110,13 @@
         <v>26</v>
       </c>
       <c r="N357" s="1" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="O357" s="1" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="P357" s="1" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="Q357" s="1" t="s">
         <v>36</v>
@@ -21209,7 +21128,7 @@
         <v>57500.0</v>
       </c>
       <c r="T357" s="1" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="U357" s="1" t="s">
         <v>39</v>
@@ -21291,7 +21210,7 @@
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
       <c r="L359" s="1" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="M359" s="1" t="s">
         <v>26</v>
@@ -21303,7 +21222,7 @@
         <v>1.0</v>
       </c>
       <c r="P359" s="1" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="Q359" s="1" t="s">
         <v>36</v>
@@ -21344,7 +21263,7 @@
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
       <c r="L360" s="1" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="M360" s="1" t="s">
         <v>58</v>
@@ -21390,7 +21309,7 @@
         <v>1.0</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H361" s="4">
         <v>80.0</v>
@@ -21488,7 +21407,7 @@
         <v>2.5</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="H363" s="4">
         <v>90.0</v>
@@ -21497,7 +21416,7 @@
         <v>135000.0</v>
       </c>
       <c r="J363" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K363" s="1" t="s">
         <v>50</v>
@@ -21537,7 +21456,7 @@
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
       <c r="M364" s="1" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="N364" s="1" t="s">
         <v>27</v>
@@ -21546,7 +21465,7 @@
         <v>1.0</v>
       </c>
       <c r="P364" s="1" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="Q364" s="1" t="s">
         <v>36</v>
@@ -21558,7 +21477,7 @@
         <v>170000.0</v>
       </c>
       <c r="T364" s="1" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="U364" s="1" t="s">
         <v>31</v>
@@ -21586,7 +21505,7 @@
         <v>1.0</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="H365" s="4">
         <v>95.0</v>
@@ -21595,7 +21514,7 @@
         <v>150000.0</v>
       </c>
       <c r="J365" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K365" s="1" t="s">
         <v>46</v>
@@ -21646,7 +21565,7 @@
         <v>1.0</v>
       </c>
       <c r="P366" s="1" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="Q366" s="1" t="s">
         <v>36</v>
@@ -21658,7 +21577,7 @@
         <v>84000.0</v>
       </c>
       <c r="T366" s="1" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="U366" s="1" t="s">
         <v>39</v>
@@ -21699,7 +21618,7 @@
         <v>1.0</v>
       </c>
       <c r="P367" s="1" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="Q367" s="1" t="s">
         <v>61</v>
@@ -21711,7 +21630,7 @@
         <v>65000.0</v>
       </c>
       <c r="T367" s="1" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="U367" s="1" t="s">
         <v>39</v>
@@ -21801,7 +21720,7 @@
         <v>1.0</v>
       </c>
       <c r="P369" s="1" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="Q369" s="1" t="s">
         <v>36</v>
@@ -21852,7 +21771,7 @@
         <v>1.0</v>
       </c>
       <c r="P370" s="2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="Q370" s="1"/>
       <c r="R370" s="4">
@@ -21943,7 +21862,7 @@
       <c r="K372" s="1"/>
       <c r="L372" s="1"/>
       <c r="M372" s="1" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="N372" s="1" t="s">
         <v>27</v>
@@ -21955,7 +21874,7 @@
         <v>35</v>
       </c>
       <c r="Q372" s="1" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="R372" s="4">
         <v>2750.0</v>
@@ -22003,7 +21922,7 @@
         <v>1.0</v>
       </c>
       <c r="P373" s="1" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="Q373" s="1" t="s">
         <v>36</v>
@@ -22015,7 +21934,7 @@
         <v>90000.0</v>
       </c>
       <c r="T373" s="1" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="U373" s="1" t="s">
         <v>31</v>
@@ -22034,7 +21953,7 @@
         <v>43</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="E374" s="4">
         <v>2.0</v>
@@ -22056,7 +21975,7 @@
         <v>1.0</v>
       </c>
       <c r="P374" s="1" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="Q374" s="1" t="s">
         <v>36</v>
@@ -22064,15 +21983,15 @@
       <c r="R374" s="4">
         <v>3400.0</v>
       </c>
-      <c r="S374" s="1" t="s">
-        <v>514</v>
+      <c r="S374" s="7">
+        <v>41000.0</v>
       </c>
       <c r="T374" s="1"/>
       <c r="U374" s="1" t="s">
         <v>39</v>
       </c>
       <c r="V374" s="2" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="W374" s="1"/>
     </row>
@@ -22109,7 +22028,7 @@
         <v>1.0</v>
       </c>
       <c r="P375" s="1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="Q375" s="1" t="s">
         <v>36</v>
@@ -22135,7 +22054,7 @@
         <v>23</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>47</v>
@@ -22160,7 +22079,7 @@
         <v>1.0</v>
       </c>
       <c r="P376" s="1" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="Q376" s="1" t="s">
         <v>29</v>
@@ -22211,7 +22130,7 @@
         <v>1.0</v>
       </c>
       <c r="P377" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q377" s="1" t="s">
         <v>36</v>
@@ -22252,7 +22171,7 @@
       <c r="J378" s="1"/>
       <c r="K378" s="1"/>
       <c r="L378" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="M378" s="1" t="s">
         <v>26</v>
@@ -22276,7 +22195,7 @@
         <v>77000.0</v>
       </c>
       <c r="T378" s="1" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="U378" s="1" t="s">
         <v>31</v>
@@ -22317,7 +22236,7 @@
         <v>1.0</v>
       </c>
       <c r="P379" s="1" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="Q379" s="1" t="s">
         <v>36</v>
@@ -22356,7 +22275,7 @@
       <c r="J380" s="1"/>
       <c r="K380" s="1"/>
       <c r="L380" s="1" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="M380" s="1" t="s">
         <v>26</v>
@@ -22368,7 +22287,7 @@
         <v>1.0</v>
       </c>
       <c r="P380" s="1" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="Q380" s="1" t="s">
         <v>36</v>
@@ -22409,7 +22328,7 @@
       <c r="J381" s="1"/>
       <c r="K381" s="1"/>
       <c r="L381" s="1" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="M381" s="1" t="s">
         <v>26</v>
@@ -22421,7 +22340,7 @@
         <v>1.0</v>
       </c>
       <c r="P381" s="1" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="Q381" s="1" t="s">
         <v>36</v>
@@ -22437,7 +22356,7 @@
         <v>39</v>
       </c>
       <c r="V381" s="2" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="W381" s="1"/>
     </row>
@@ -22525,7 +22444,7 @@
         <v>1.0</v>
       </c>
       <c r="P383" s="1" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="Q383" s="1" t="s">
         <v>29</v>
@@ -22537,7 +22456,7 @@
         <v>75000.0</v>
       </c>
       <c r="T383" s="1" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="U383" s="1" t="s">
         <v>31</v>
@@ -22565,7 +22484,7 @@
         <v>2.0</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="H384" s="1"/>
       <c r="I384" s="4">
@@ -22575,7 +22494,7 @@
         <v>49</v>
       </c>
       <c r="K384" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L384" s="1"/>
       <c r="M384" s="1"/>
@@ -22664,7 +22583,7 @@
       <c r="J386" s="1"/>
       <c r="K386" s="1"/>
       <c r="L386" s="1" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="M386" s="1" t="s">
         <v>58</v>
@@ -22676,7 +22595,7 @@
         <v>1.0</v>
       </c>
       <c r="P386" s="1" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="Q386" s="1" t="s">
         <v>29</v>
@@ -22684,7 +22603,7 @@
       <c r="R386" s="4">
         <v>2600.0</v>
       </c>
-      <c r="S386" s="7">
+      <c r="S386" s="8">
         <v>32500.0</v>
       </c>
       <c r="T386" s="1"/>
@@ -22692,7 +22611,7 @@
         <v>31</v>
       </c>
       <c r="V386" s="2" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="W386" s="1"/>
     </row>
@@ -22704,7 +22623,7 @@
         <v>23</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>25</v>
@@ -22720,7 +22639,7 @@
       <c r="K387" s="1"/>
       <c r="L387" s="1"/>
       <c r="M387" s="1" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="N387" s="1" t="s">
         <v>33</v>
@@ -22780,7 +22699,7 @@
         <v>1.0</v>
       </c>
       <c r="P388" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q388" s="1" t="s">
         <v>29</v>
@@ -22829,7 +22748,7 @@
         <v>1.0</v>
       </c>
       <c r="P389" s="1" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="Q389" s="1" t="s">
         <v>36</v>
@@ -22878,7 +22797,7 @@
         <v>1.0</v>
       </c>
       <c r="P390" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q390" s="1" t="s">
         <v>36</v>
@@ -22978,7 +22897,7 @@
         <v>1.0</v>
       </c>
       <c r="P392" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="Q392" s="1" t="s">
         <v>36</v>
@@ -22990,7 +22909,7 @@
         <v>51000.0</v>
       </c>
       <c r="T392" s="1" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="U392" s="1" t="s">
         <v>39</v>
@@ -23009,7 +22928,7 @@
         <v>24</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E393" s="4">
         <v>6.0</v>
@@ -23021,7 +22940,7 @@
       <c r="J393" s="1"/>
       <c r="K393" s="1"/>
       <c r="L393" s="1" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="M393" s="1" t="s">
         <v>58</v>
@@ -23033,7 +22952,7 @@
         <v>1.0</v>
       </c>
       <c r="P393" s="1" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="Q393" s="1" t="s">
         <v>36</v>
@@ -23074,7 +22993,7 @@
       <c r="J394" s="1"/>
       <c r="K394" s="1"/>
       <c r="L394" s="1" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="M394" s="1" t="s">
         <v>26</v>
@@ -23112,7 +23031,7 @@
         <v>23</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>25</v>
@@ -23137,7 +23056,7 @@
         <v>1.0</v>
       </c>
       <c r="P395" s="1" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="Q395" s="1" t="s">
         <v>29</v>
@@ -23176,7 +23095,7 @@
       <c r="J396" s="1"/>
       <c r="K396" s="1"/>
       <c r="L396" s="1" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="M396" s="1" t="s">
         <v>26</v>
@@ -23188,7 +23107,7 @@
         <v>1.0</v>
       </c>
       <c r="P396" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q396" s="1" t="s">
         <v>36</v>
@@ -23200,7 +23119,7 @@
         <v>76000.0</v>
       </c>
       <c r="T396" s="1" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="U396" s="1" t="s">
         <v>31</v>
@@ -23231,7 +23150,7 @@
       <c r="J397" s="1"/>
       <c r="K397" s="1"/>
       <c r="L397" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M397" s="1" t="s">
         <v>26</v>
@@ -23243,7 +23162,7 @@
         <v>1.0</v>
       </c>
       <c r="P397" s="1" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="Q397" s="1" t="s">
         <v>36</v>
@@ -23255,7 +23174,7 @@
         <v>97000.0</v>
       </c>
       <c r="T397" s="1" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="U397" s="1" t="s">
         <v>31</v>
@@ -23283,7 +23202,7 @@
         <v>5.0</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="H398" s="4">
         <v>80.0</v>
@@ -23343,7 +23262,7 @@
         <v>1.0</v>
       </c>
       <c r="P399" s="1" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="Q399" s="1" t="s">
         <v>36</v>
@@ -23355,7 +23274,7 @@
         <v>81250.0</v>
       </c>
       <c r="T399" s="1" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="U399" s="1" t="s">
         <v>31</v>
@@ -23425,7 +23344,7 @@
         <v>24</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="E401" s="4">
         <v>13.0</v>
@@ -23434,7 +23353,7 @@
         <v>3.0</v>
       </c>
       <c r="G401" s="1" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="H401" s="4">
         <v>85.0</v>
@@ -23443,7 +23362,7 @@
         <v>125000.0</v>
       </c>
       <c r="J401" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K401" s="1" t="s">
         <v>46</v>
@@ -23494,7 +23413,7 @@
         <v>1.0</v>
       </c>
       <c r="P402" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q402" s="1" t="s">
         <v>36</v>
@@ -23543,7 +23462,7 @@
         <v>1.0</v>
       </c>
       <c r="P403" s="1" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="Q403" s="1" t="s">
         <v>36</v>
@@ -23594,7 +23513,7 @@
         <v>1.0</v>
       </c>
       <c r="P404" s="1" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="Q404" s="1" t="s">
         <v>36</v>
@@ -23602,8 +23521,8 @@
       <c r="R404" s="4">
         <v>4500.0</v>
       </c>
-      <c r="S404" s="1" t="s">
-        <v>551</v>
+      <c r="S404" s="7">
+        <v>56250.0</v>
       </c>
       <c r="T404" s="1"/>
       <c r="U404" s="1" t="s">
@@ -23635,7 +23554,7 @@
       <c r="J405" s="1"/>
       <c r="K405" s="1"/>
       <c r="L405" s="1" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="M405" s="1" t="s">
         <v>37</v>
@@ -23647,7 +23566,7 @@
         <v>1.0</v>
       </c>
       <c r="P405" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q405" s="1" t="s">
         <v>29</v>
@@ -23683,7 +23602,7 @@
         <v>3.0</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="H406" s="4">
         <v>116.0</v>
@@ -23743,7 +23662,7 @@
         <v>1.0</v>
       </c>
       <c r="P407" s="1" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="Q407" s="1" t="s">
         <v>36</v>
@@ -23751,8 +23670,8 @@
       <c r="R407" s="4">
         <v>3200.0</v>
       </c>
-      <c r="S407" s="1" t="s">
-        <v>554</v>
+      <c r="S407" s="7">
+        <v>40000.0</v>
       </c>
       <c r="T407" s="1"/>
       <c r="U407" s="1" t="s">
@@ -23845,7 +23764,7 @@
         <v>1.0</v>
       </c>
       <c r="P409" s="1" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="Q409" s="1" t="s">
         <v>29</v>
@@ -23883,7 +23802,7 @@
         <v>4.0</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="H410" s="4">
         <v>65.0</v>
@@ -23953,7 +23872,7 @@
         <v>75000.0</v>
       </c>
       <c r="T411" s="1" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="U411" s="1" t="s">
         <v>31</v>
@@ -24045,7 +23964,7 @@
         <v>1.0</v>
       </c>
       <c r="P413" s="1" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="Q413" s="1" t="s">
         <v>36</v>
@@ -24096,7 +24015,7 @@
         <v>1.0</v>
       </c>
       <c r="P414" s="1" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="Q414" s="1" t="s">
         <v>29</v>
@@ -24147,7 +24066,7 @@
         <v>1.0</v>
       </c>
       <c r="P415" s="1" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="Q415" s="1" t="s">
         <v>36</v>
@@ -24159,7 +24078,7 @@
         <v>50000.0</v>
       </c>
       <c r="T415" s="1" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="U415" s="1" t="s">
         <v>31</v>
@@ -24200,7 +24119,7 @@
         <v>1.0</v>
       </c>
       <c r="P416" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q416" s="1" t="s">
         <v>36</v>
@@ -24241,7 +24160,7 @@
       <c r="J417" s="1"/>
       <c r="K417" s="1"/>
       <c r="L417" s="1" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="M417" s="1" t="s">
         <v>58</v>
@@ -24304,13 +24223,13 @@
         <v>1.0</v>
       </c>
       <c r="P418" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="Q418" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R418" s="1" t="s">
-        <v>563</v>
+      <c r="R418" s="7">
+        <v>5259.29</v>
       </c>
       <c r="S418" s="4">
         <v>65741.0</v>
@@ -24408,7 +24327,7 @@
         <v>1.0</v>
       </c>
       <c r="P420" s="1" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="Q420" s="1" t="s">
         <v>36</v>
@@ -24459,7 +24378,7 @@
         <v>1.0</v>
       </c>
       <c r="P421" s="1" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="Q421" s="1" t="s">
         <v>36</v>
@@ -24500,7 +24419,7 @@
       <c r="J422" s="1"/>
       <c r="K422" s="1"/>
       <c r="L422" s="1" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="M422" s="1" t="s">
         <v>37</v>
@@ -24512,7 +24431,7 @@
         <v>1.0</v>
       </c>
       <c r="P422" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q422" s="1" t="s">
         <v>36</v>
@@ -24563,7 +24482,7 @@
         <v>1.0</v>
       </c>
       <c r="P423" s="1" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="Q423" s="1" t="s">
         <v>29</v>
@@ -24575,7 +24494,7 @@
         <v>75000.0</v>
       </c>
       <c r="T423" s="1" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="U423" s="1" t="s">
         <v>31</v>
@@ -24603,7 +24522,7 @@
         <v>5.0</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="H424" s="4">
         <v>85.0</v>
@@ -24628,7 +24547,7 @@
       <c r="T424" s="1"/>
       <c r="U424" s="1"/>
       <c r="V424" s="2" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="W424" s="1"/>
     </row>
@@ -24655,7 +24574,7 @@
       <c r="J425" s="1"/>
       <c r="K425" s="1"/>
       <c r="L425" s="1" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="M425" s="1" t="s">
         <v>37</v>
@@ -24679,7 +24598,7 @@
         <v>56500.0</v>
       </c>
       <c r="T425" s="1" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="U425" s="1"/>
       <c r="V425" s="1"/>
@@ -24718,7 +24637,7 @@
         <v>1.0</v>
       </c>
       <c r="P426" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q426" s="1" t="s">
         <v>36</v>
@@ -24767,7 +24686,7 @@
         <v>1.0</v>
       </c>
       <c r="P427" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q427" s="1" t="s">
         <v>36</v>
@@ -24809,7 +24728,7 @@
       <c r="K428" s="1"/>
       <c r="L428" s="1"/>
       <c r="M428" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="N428" s="1" t="s">
         <v>33</v>
@@ -24818,7 +24737,7 @@
         <v>1.0</v>
       </c>
       <c r="P428" s="1" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="Q428" s="1" t="s">
         <v>36</v>
@@ -24835,7 +24754,7 @@
       </c>
       <c r="V428" s="1"/>
       <c r="W428" s="2" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
     </row>
     <row r="429">
@@ -24885,13 +24804,13 @@
         <v>98000.0</v>
       </c>
       <c r="T429" s="1" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="U429" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V429" s="2" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="W429" s="1"/>
     </row>
@@ -24906,7 +24825,7 @@
         <v>40</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="E430" s="4">
         <v>15.0</v>
@@ -24930,7 +24849,7 @@
         <v>1.0</v>
       </c>
       <c r="P430" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q430" s="1" t="s">
         <v>36</v>
@@ -24981,7 +24900,7 @@
         <v>1.0</v>
       </c>
       <c r="P431" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="Q431" s="1" t="s">
         <v>61</v>
@@ -25022,7 +24941,7 @@
       <c r="J432" s="1"/>
       <c r="K432" s="1"/>
       <c r="L432" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="M432" s="1" t="s">
         <v>58</v>
@@ -25034,7 +24953,7 @@
         <v>1.0</v>
       </c>
       <c r="P432" s="1" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="Q432" s="1" t="s">
         <v>36</v>
@@ -25111,7 +25030,7 @@
         <v>23</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>25</v>
@@ -25126,7 +25045,7 @@
       <c r="J434" s="1"/>
       <c r="K434" s="1"/>
       <c r="L434" s="1" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="M434" s="1" t="s">
         <v>26</v>
@@ -25176,7 +25095,7 @@
         <v>1.5</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="H435" s="4">
         <v>90.0</v>
@@ -25201,10 +25120,10 @@
       <c r="T435" s="1"/>
       <c r="U435" s="1"/>
       <c r="V435" s="1" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="W435" s="2" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
     </row>
     <row r="436">
@@ -25240,7 +25159,7 @@
         <v>0.9</v>
       </c>
       <c r="P436" s="1" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="Q436" s="1" t="s">
         <v>61</v>
@@ -25252,13 +25171,13 @@
         <v>90000.0</v>
       </c>
       <c r="T436" s="1" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="U436" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V436" s="2" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="W436" s="1"/>
     </row>
@@ -25285,7 +25204,7 @@
       <c r="J437" s="1"/>
       <c r="K437" s="1"/>
       <c r="L437" s="1" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="M437" s="1" t="s">
         <v>37</v>
@@ -25338,7 +25257,7 @@
       <c r="J438" s="1"/>
       <c r="K438" s="1"/>
       <c r="L438" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M438" s="1" t="s">
         <v>26</v>
@@ -25350,7 +25269,7 @@
         <v>1.0</v>
       </c>
       <c r="P438" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="Q438" s="1" t="s">
         <v>61</v>
@@ -25362,7 +25281,7 @@
         <v>83000.0</v>
       </c>
       <c r="T438" s="1" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="U438" s="1" t="s">
         <v>39</v>
@@ -25403,12 +25322,12 @@
         <v>1.0</v>
       </c>
       <c r="P439" s="1" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="Q439" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R439" s="8">
+      <c r="R439" s="9">
         <v>3300.0</v>
       </c>
       <c r="S439" s="4">
@@ -25454,7 +25373,7 @@
         <v>1.0</v>
       </c>
       <c r="P440" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q440" s="1" t="s">
         <v>61</v>
@@ -25556,7 +25475,7 @@
         <v>1.0</v>
       </c>
       <c r="P442" s="1" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="Q442" s="1" t="s">
         <v>36</v>
@@ -25597,7 +25516,7 @@
       <c r="J443" s="1"/>
       <c r="K443" s="1"/>
       <c r="L443" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M443" s="1" t="s">
         <v>26</v>
@@ -25650,7 +25569,7 @@
       <c r="J444" s="1"/>
       <c r="K444" s="1"/>
       <c r="L444" s="1" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="M444" s="1" t="s">
         <v>26</v>
@@ -25662,7 +25581,7 @@
         <v>1.0</v>
       </c>
       <c r="P444" s="1" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="Q444" s="1" t="s">
         <v>36</v>
@@ -25715,7 +25634,7 @@
         <v>1.0</v>
       </c>
       <c r="P445" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="Q445" s="1" t="s">
         <v>36</v>
@@ -25732,7 +25651,7 @@
       </c>
       <c r="V445" s="1"/>
       <c r="W445" s="2" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="446">
@@ -25778,7 +25697,7 @@
         <v>93750.0</v>
       </c>
       <c r="T446" s="1" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="U446" s="1" t="s">
         <v>31</v>
@@ -25819,7 +25738,7 @@
         <v>1.0</v>
       </c>
       <c r="P447" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q447" s="1"/>
       <c r="R447" s="4">
@@ -25858,10 +25777,10 @@
       <c r="J448" s="1"/>
       <c r="K448" s="1"/>
       <c r="L448" s="1" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="M448" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="N448" s="1" t="s">
         <v>33</v>
@@ -25870,7 +25789,7 @@
         <v>1.0</v>
       </c>
       <c r="P448" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q448" s="1" t="s">
         <v>29</v>
@@ -25911,7 +25830,7 @@
       <c r="J449" s="1"/>
       <c r="K449" s="1"/>
       <c r="L449" s="1" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="M449" s="1" t="s">
         <v>37</v>
@@ -25920,10 +25839,10 @@
         <v>33</v>
       </c>
       <c r="O449" s="1" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="P449" s="1" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="Q449" s="1" t="s">
         <v>29</v>
@@ -25935,14 +25854,14 @@
         <v>81250.0</v>
       </c>
       <c r="T449" s="1" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="U449" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V449" s="1"/>
       <c r="W449" s="2" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
     </row>
     <row r="450">
@@ -25978,7 +25897,7 @@
         <v>1.0</v>
       </c>
       <c r="P450" s="1" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="Q450" s="1" t="s">
         <v>29</v>
@@ -26016,7 +25935,7 @@
         <v>2.0</v>
       </c>
       <c r="G451" s="1" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="H451" s="4">
         <v>80.0</v>
@@ -26025,7 +25944,7 @@
         <v>93000.0</v>
       </c>
       <c r="J451" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K451" s="1" t="s">
         <v>46</v>
@@ -26115,7 +26034,7 @@
       <c r="J453" s="1"/>
       <c r="K453" s="1"/>
       <c r="L453" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M453" s="1" t="s">
         <v>26</v>
@@ -26139,7 +26058,7 @@
         <v>75000.0</v>
       </c>
       <c r="T453" s="1" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="U453" s="1" t="s">
         <v>31</v>
@@ -26180,7 +26099,7 @@
         <v>1.0</v>
       </c>
       <c r="P454" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="Q454" s="1" t="s">
         <v>29</v>
@@ -26221,7 +26140,7 @@
       <c r="J455" s="1"/>
       <c r="K455" s="1"/>
       <c r="L455" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M455" s="1" t="s">
         <v>37</v>
@@ -26233,7 +26152,7 @@
         <v>1.0</v>
       </c>
       <c r="P455" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q455" s="1" t="s">
         <v>36</v>
@@ -26245,7 +26164,7 @@
         <v>71250.0</v>
       </c>
       <c r="T455" s="1" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="U455" s="1" t="s">
         <v>31</v>
@@ -26264,7 +26183,7 @@
         <v>40</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="E456" s="4">
         <v>12.0</v>
@@ -26273,7 +26192,7 @@
         <v>1.5</v>
       </c>
       <c r="G456" s="1" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="H456" s="1"/>
       <c r="I456" s="4">
@@ -26331,7 +26250,7 @@
         <v>1.0</v>
       </c>
       <c r="P457" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q457" s="1" t="s">
         <v>36</v>
@@ -26380,7 +26299,7 @@
         <v>1.0</v>
       </c>
       <c r="P458" s="1" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="Q458" s="1" t="s">
         <v>36</v>
@@ -26392,7 +26311,7 @@
         <v>80000.0</v>
       </c>
       <c r="T458" s="1" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="U458" s="1" t="s">
         <v>39</v>
@@ -26421,7 +26340,7 @@
       <c r="J459" s="1"/>
       <c r="K459" s="1"/>
       <c r="L459" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M459" s="1" t="s">
         <v>26</v>
@@ -26433,7 +26352,7 @@
         <v>1.0</v>
       </c>
       <c r="P459" s="1" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="Q459" s="1" t="s">
         <v>61</v>
@@ -26445,7 +26364,7 @@
         <v>67200.0</v>
       </c>
       <c r="T459" s="1" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="U459" s="1" t="s">
         <v>31</v>
@@ -26494,11 +26413,11 @@
       <c r="R460" s="4">
         <v>6100.0</v>
       </c>
-      <c r="S460" s="1" t="s">
-        <v>610</v>
+      <c r="S460" s="7">
+        <v>100000.0</v>
       </c>
       <c r="T460" s="1" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="U460" s="1" t="s">
         <v>31</v>
@@ -26539,7 +26458,7 @@
         <v>1.0</v>
       </c>
       <c r="P461" s="1" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="Q461" s="1" t="s">
         <v>29</v>
@@ -26577,7 +26496,7 @@
         <v>8.0</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="H462" s="1"/>
       <c r="I462" s="4">
@@ -26625,7 +26544,7 @@
       <c r="J463" s="1"/>
       <c r="K463" s="1"/>
       <c r="L463" s="1" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="M463" s="1" t="s">
         <v>26</v>
@@ -26649,7 +26568,7 @@
         <v>82000.0</v>
       </c>
       <c r="T463" s="1" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="U463" s="1" t="s">
         <v>31</v>
@@ -26690,7 +26609,7 @@
         <v>1.0</v>
       </c>
       <c r="P464" s="1" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="Q464" s="1" t="s">
         <v>36</v>
@@ -26702,7 +26621,7 @@
         <v>71250.0</v>
       </c>
       <c r="T464" s="1" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="U464" s="1" t="s">
         <v>31</v>
@@ -26743,7 +26662,7 @@
         <v>1.0</v>
       </c>
       <c r="P465" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q465" s="1" t="s">
         <v>61</v>
@@ -26751,17 +26670,17 @@
       <c r="R465" s="4">
         <v>6500.0</v>
       </c>
-      <c r="S465" s="1" t="s">
-        <v>616</v>
+      <c r="S465" s="7">
+        <v>81250.0</v>
       </c>
       <c r="T465" s="1" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="U465" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V465" s="2" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="W465" s="1"/>
     </row>
@@ -26788,7 +26707,7 @@
       <c r="J466" s="1"/>
       <c r="K466" s="1"/>
       <c r="L466" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M466" s="1" t="s">
         <v>26</v>
@@ -26800,7 +26719,7 @@
         <v>1.0</v>
       </c>
       <c r="P466" s="1" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="Q466" s="1" t="s">
         <v>36</v>
@@ -26812,7 +26731,7 @@
         <v>75375.0</v>
       </c>
       <c r="T466" s="1" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="U466" s="1" t="s">
         <v>31</v>
@@ -26853,7 +26772,7 @@
         <v>1.0</v>
       </c>
       <c r="P467" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q467" s="1" t="s">
         <v>36</v>
@@ -26865,7 +26784,7 @@
         <v>93750.0</v>
       </c>
       <c r="T467" s="1" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="U467" s="1" t="s">
         <v>31</v>
@@ -26881,7 +26800,7 @@
         <v>23</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D468" s="1" t="s">
         <v>103</v>
@@ -26957,7 +26876,7 @@
         <v>1.0</v>
       </c>
       <c r="P469" s="1" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="Q469" s="1" t="s">
         <v>29</v>
@@ -26969,7 +26888,7 @@
         <v>69000.0</v>
       </c>
       <c r="T469" s="1" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="U469" s="1" t="s">
         <v>31</v>
@@ -27059,7 +26978,7 @@
         <v>1.0</v>
       </c>
       <c r="P471" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Q471" s="1" t="s">
         <v>29</v>
@@ -27110,7 +27029,7 @@
         <v>1.0</v>
       </c>
       <c r="P472" s="1" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="Q472" s="1" t="s">
         <v>29</v>
@@ -27173,7 +27092,7 @@
         <v>105000.0</v>
       </c>
       <c r="T473" s="1" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="U473" s="1" t="s">
         <v>31</v>
@@ -27214,7 +27133,7 @@
         <v>1.0</v>
       </c>
       <c r="P474" s="1" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="Q474" s="1" t="s">
         <v>36</v>
@@ -27265,7 +27184,7 @@
         <v>1.0</v>
       </c>
       <c r="P475" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q475" s="1" t="s">
         <v>29</v>
@@ -27306,7 +27225,7 @@
       <c r="J476" s="1"/>
       <c r="K476" s="1"/>
       <c r="L476" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="M476" s="1" t="s">
         <v>26</v>
@@ -27330,7 +27249,7 @@
         <v>100000.0</v>
       </c>
       <c r="T476" s="1" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="U476" s="1" t="s">
         <v>31</v>
@@ -27349,7 +27268,7 @@
         <v>43</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="E477" s="4">
         <v>1.0</v>
@@ -27422,7 +27341,7 @@
         <v>1.0</v>
       </c>
       <c r="P478" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q478" s="1" t="s">
         <v>36</v>
@@ -27434,7 +27353,7 @@
         <v>62500.0</v>
       </c>
       <c r="T478" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="U478" s="1" t="s">
         <v>31</v>
@@ -27477,7 +27396,7 @@
         <v>1.0</v>
       </c>
       <c r="P479" s="1" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="Q479" s="1" t="s">
         <v>36</v>
@@ -27485,8 +27404,8 @@
       <c r="R479" s="4">
         <v>4581.0</v>
       </c>
-      <c r="S479" s="1" t="s">
-        <v>631</v>
+      <c r="S479" s="7">
+        <v>57500.0</v>
       </c>
       <c r="T479" s="1"/>
       <c r="U479" s="1" t="s">
@@ -27503,7 +27422,7 @@
         <v>23</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>25</v>
@@ -27528,7 +27447,7 @@
         <v>1.0</v>
       </c>
       <c r="P480" s="1" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="Q480" s="1" t="s">
         <v>29</v>
@@ -27577,7 +27496,7 @@
         <v>1.0</v>
       </c>
       <c r="P481" s="1" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="Q481" s="1" t="s">
         <v>36</v>
@@ -27606,7 +27525,7 @@
         <v>109</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="E482" s="4">
         <v>31.0</v>
@@ -27615,7 +27534,7 @@
         <v>6.0</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="H482" s="4">
         <v>60.0</v>
@@ -27627,7 +27546,7 @@
         <v>49</v>
       </c>
       <c r="K482" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L482" s="1"/>
       <c r="M482" s="1"/>
@@ -27675,7 +27594,7 @@
         <v>1.0</v>
       </c>
       <c r="P483" s="1" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="Q483" s="1" t="s">
         <v>36</v>
@@ -27687,7 +27606,7 @@
         <v>70000.0</v>
       </c>
       <c r="T483" s="1" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="U483" s="1" t="s">
         <v>31</v>
@@ -27728,7 +27647,7 @@
         <v>1.0</v>
       </c>
       <c r="P484" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q484" s="1" t="s">
         <v>36</v>
@@ -27769,7 +27688,7 @@
       <c r="J485" s="1"/>
       <c r="K485" s="1"/>
       <c r="L485" s="1" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="M485" s="1" t="s">
         <v>26</v>
@@ -27781,7 +27700,7 @@
         <v>1.0</v>
       </c>
       <c r="P485" s="1" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="Q485" s="1" t="s">
         <v>36</v>
@@ -27822,7 +27741,7 @@
       <c r="J486" s="1"/>
       <c r="K486" s="1"/>
       <c r="L486" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M486" s="1" t="s">
         <v>26</v>
@@ -27876,7 +27795,7 @@
       <c r="K487" s="1"/>
       <c r="L487" s="1"/>
       <c r="M487" s="1" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="N487" s="1" t="s">
         <v>27</v>
@@ -27885,7 +27804,7 @@
         <v>1.0</v>
       </c>
       <c r="P487" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q487" s="1" t="s">
         <v>29</v>
@@ -27897,7 +27816,7 @@
         <v>108000.0</v>
       </c>
       <c r="T487" s="1" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="U487" s="1" t="s">
         <v>31</v>
@@ -27913,7 +27832,7 @@
         <v>23</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>47</v>
@@ -27938,7 +27857,7 @@
         <v>0.8</v>
       </c>
       <c r="P488" s="1" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="Q488" s="1" t="s">
         <v>61</v>
@@ -27950,7 +27869,7 @@
         <v>68000.0</v>
       </c>
       <c r="T488" s="1" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="U488" s="1" t="s">
         <v>31</v>
@@ -27981,7 +27900,7 @@
       <c r="J489" s="1"/>
       <c r="K489" s="1"/>
       <c r="L489" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M489" s="1" t="s">
         <v>26</v>
@@ -27993,19 +27912,19 @@
         <v>1.0</v>
       </c>
       <c r="P489" s="1" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="Q489" s="1" t="s">
         <v>29</v>
       </c>
       <c r="R489" s="1" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="S489" s="4">
         <v>77000.0</v>
       </c>
       <c r="T489" s="1" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="U489" s="1" t="s">
         <v>39</v>
@@ -28033,7 +27952,7 @@
         <v>0.0</v>
       </c>
       <c r="G490" s="1" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="H490" s="1"/>
       <c r="I490" s="4">
@@ -28081,7 +28000,7 @@
       <c r="J491" s="1"/>
       <c r="K491" s="1"/>
       <c r="L491" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M491" s="1" t="s">
         <v>58</v>
@@ -28134,7 +28053,7 @@
       <c r="J492" s="1"/>
       <c r="K492" s="1"/>
       <c r="L492" s="1" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="M492" s="1" t="s">
         <v>37</v>
@@ -28146,7 +28065,7 @@
         <v>1.0</v>
       </c>
       <c r="P492" s="1" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="Q492" s="1" t="s">
         <v>29</v>
@@ -28219,7 +28138,7 @@
         <v>23</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>103</v>
@@ -28244,7 +28163,7 @@
         <v>1.0</v>
       </c>
       <c r="P494" s="1" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="Q494" s="1" t="s">
         <v>36</v>
@@ -28256,7 +28175,7 @@
         <v>91000.0</v>
       </c>
       <c r="T494" s="1" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="U494" s="1" t="s">
         <v>31</v>
@@ -28303,8 +28222,8 @@
       <c r="R495" s="4">
         <v>9000.0</v>
       </c>
-      <c r="S495" s="1" t="s">
-        <v>651</v>
+      <c r="S495" s="7">
+        <v>112500.0</v>
       </c>
       <c r="T495" s="1"/>
       <c r="U495" s="1" t="s">
@@ -28397,7 +28316,7 @@
         <v>1.0</v>
       </c>
       <c r="P497" s="1" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="Q497" s="1" t="s">
         <v>29</v>
@@ -28448,7 +28367,7 @@
         <v>0.8</v>
       </c>
       <c r="P498" s="1" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="Q498" s="1" t="s">
         <v>36</v>
@@ -28464,10 +28383,10 @@
         <v>39</v>
       </c>
       <c r="V498" s="1" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="W498" s="2" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
     </row>
     <row r="499">
@@ -28503,7 +28422,7 @@
         <v>1.0</v>
       </c>
       <c r="P499" s="1" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="Q499" s="1" t="s">
         <v>29</v>
@@ -28605,7 +28524,7 @@
         <v>1.0</v>
       </c>
       <c r="P501" s="1" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="Q501" s="1" t="s">
         <v>36</v>
@@ -28621,10 +28540,10 @@
         <v>39</v>
       </c>
       <c r="V501" s="1" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="W501" s="2" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
     </row>
     <row r="502">
@@ -28638,7 +28557,7 @@
         <v>40</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="E502" s="4">
         <v>11.0</v>
@@ -28650,7 +28569,7 @@
       <c r="J502" s="1"/>
       <c r="K502" s="1"/>
       <c r="L502" s="1" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="M502" s="1" t="s">
         <v>26</v>
@@ -28662,7 +28581,7 @@
         <v>1.0</v>
       </c>
       <c r="P502" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q502" s="1" t="s">
         <v>29</v>
@@ -28674,7 +28593,7 @@
         <v>78000.0</v>
       </c>
       <c r="T502" s="1" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="U502" s="1" t="s">
         <v>31</v>
@@ -28712,7 +28631,7 @@
         <v>49</v>
       </c>
       <c r="K503" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L503" s="1"/>
       <c r="M503" s="1"/>
@@ -28725,7 +28644,7 @@
       <c r="T503" s="1"/>
       <c r="U503" s="1"/>
       <c r="V503" s="2" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="W503" s="1"/>
     </row>
@@ -28752,7 +28671,7 @@
       <c r="J504" s="1"/>
       <c r="K504" s="1"/>
       <c r="L504" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M504" s="1" t="s">
         <v>58</v>
@@ -28790,7 +28709,7 @@
         <v>23</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>25</v>
@@ -28815,7 +28734,7 @@
         <v>1.0</v>
       </c>
       <c r="P505" s="1" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="Q505" s="1" t="s">
         <v>36</v>
@@ -28827,7 +28746,7 @@
         <v>66125.0</v>
       </c>
       <c r="T505" s="1" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="U505" s="1" t="s">
         <v>31</v>
@@ -28909,7 +28828,7 @@
       <c r="J507" s="1"/>
       <c r="K507" s="1"/>
       <c r="L507" s="1" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="M507" s="1" t="s">
         <v>26</v>
@@ -28921,7 +28840,7 @@
         <v>1.0</v>
       </c>
       <c r="P507" s="1" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="Q507" s="1" t="s">
         <v>36</v>
@@ -28933,7 +28852,7 @@
         <v>57500.0</v>
       </c>
       <c r="T507" s="1" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="U507" s="1" t="s">
         <v>31</v>
@@ -28974,7 +28893,7 @@
         <v>1.0</v>
       </c>
       <c r="P508" s="1" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="Q508" s="1" t="s">
         <v>36</v>
@@ -29003,7 +28922,7 @@
         <v>24</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="E509" s="4">
         <v>3.0</v>
@@ -29015,7 +28934,7 @@
       <c r="J509" s="1"/>
       <c r="K509" s="1"/>
       <c r="L509" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M509" s="1" t="s">
         <v>26</v>
@@ -29076,7 +28995,7 @@
         <v>1.0</v>
       </c>
       <c r="P510" s="1" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="Q510" s="1" t="s">
         <v>36</v>
@@ -29088,13 +29007,13 @@
         <v>188000.0</v>
       </c>
       <c r="T510" s="1" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="U510" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V510" s="2" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="W510" s="1"/>
     </row>
@@ -29206,7 +29125,7 @@
         <v>23</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D513" s="1" t="s">
         <v>25</v>
@@ -29231,7 +29150,7 @@
         <v>1.0</v>
       </c>
       <c r="P513" s="1" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="Q513" s="1" t="s">
         <v>36</v>
@@ -29282,7 +29201,7 @@
         <v>1.0</v>
       </c>
       <c r="P514" s="1" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="Q514" s="1" t="s">
         <v>36</v>
@@ -29394,10 +29313,10 @@
         <v>31</v>
       </c>
       <c r="V516" s="1" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="W516" s="2" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
     </row>
     <row r="517">
@@ -29433,7 +29352,7 @@
         <v>1.0</v>
       </c>
       <c r="P517" s="1" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="Q517" s="1" t="s">
         <v>36</v>
@@ -29445,7 +29364,7 @@
         <v>90000.0</v>
       </c>
       <c r="T517" s="1" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="U517" s="1" t="s">
         <v>31</v>
@@ -29476,7 +29395,7 @@
       <c r="J518" s="1"/>
       <c r="K518" s="1"/>
       <c r="L518" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M518" s="1" t="s">
         <v>26</v>
@@ -29488,7 +29407,7 @@
         <v>1.0</v>
       </c>
       <c r="P518" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q518" s="1" t="s">
         <v>29</v>
@@ -29539,7 +29458,7 @@
         <v>1.0</v>
       </c>
       <c r="P519" s="1" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="Q519" s="1" t="s">
         <v>29</v>
@@ -29692,7 +29611,7 @@
         <v>1.0</v>
       </c>
       <c r="P522" s="1" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="Q522" s="1" t="s">
         <v>29</v>
@@ -29704,7 +29623,7 @@
         <v>84000.0</v>
       </c>
       <c r="T522" s="1" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="U522" s="1" t="s">
         <v>31</v>
@@ -29745,7 +29664,7 @@
         <v>1.0</v>
       </c>
       <c r="P523" s="1" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="Q523" s="1" t="s">
         <v>61</v>
@@ -29861,7 +29780,7 @@
         <v>60000.0</v>
       </c>
       <c r="T525" s="1" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="U525" s="1" t="s">
         <v>39</v>
@@ -29914,7 +29833,7 @@
         <v>87500.0</v>
       </c>
       <c r="T526" s="1" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="U526" s="1" t="s">
         <v>31</v>
@@ -29993,7 +29912,7 @@
         <v>3.0</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="H528" s="4">
         <v>95.0</v>
@@ -30031,7 +29950,7 @@
         <v>94</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E529" s="4">
         <v>1.0</v>
@@ -30053,7 +29972,7 @@
         <v>1.0</v>
       </c>
       <c r="P529" s="1" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="Q529" s="1" t="s">
         <v>36</v>
@@ -30114,7 +30033,7 @@
         <v>59000.0</v>
       </c>
       <c r="T530" s="1" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="U530" s="1" t="s">
         <v>31</v>
@@ -30155,7 +30074,7 @@
         <v>1.0</v>
       </c>
       <c r="P531" s="1" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="Q531" s="1" t="s">
         <v>36</v>
@@ -30197,7 +30116,7 @@
       <c r="K532" s="1"/>
       <c r="L532" s="1"/>
       <c r="M532" s="1" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="N532" s="1" t="s">
         <v>27</v>
@@ -30206,7 +30125,7 @@
         <v>1.0</v>
       </c>
       <c r="P532" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="Q532" s="1" t="s">
         <v>36</v>
@@ -30218,7 +30137,7 @@
         <v>11250.0</v>
       </c>
       <c r="T532" s="1" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="U532" s="1" t="s">
         <v>31</v>
@@ -30312,7 +30231,7 @@
         <v>1.0</v>
       </c>
       <c r="P534" s="1" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="Q534" s="1" t="s">
         <v>29</v>
@@ -30363,7 +30282,7 @@
         <v>1.0</v>
       </c>
       <c r="P535" s="1" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="Q535" s="1" t="s">
         <v>61</v>
@@ -30405,7 +30324,7 @@
       <c r="K536" s="1"/>
       <c r="L536" s="1"/>
       <c r="M536" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N536" s="1" t="s">
         <v>27</v>
@@ -30414,7 +30333,7 @@
         <v>1.0</v>
       </c>
       <c r="P536" s="1" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="Q536" s="1" t="s">
         <v>36</v>
@@ -30422,8 +30341,8 @@
       <c r="R536" s="4">
         <v>2850.0</v>
       </c>
-      <c r="S536" s="1" t="s">
-        <v>694</v>
+      <c r="S536" s="7">
+        <v>35625.0</v>
       </c>
       <c r="T536" s="1"/>
       <c r="U536" s="1" t="s">
@@ -30465,7 +30384,7 @@
         <v>1.0</v>
       </c>
       <c r="P537" s="1" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="Q537" s="1" t="s">
         <v>36</v>
@@ -30612,7 +30531,7 @@
         <v>1.0</v>
       </c>
       <c r="P540" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q540" s="1" t="s">
         <v>29</v>
@@ -30654,7 +30573,7 @@
       <c r="K541" s="1"/>
       <c r="L541" s="1"/>
       <c r="M541" s="1" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="N541" s="1" t="s">
         <v>59</v>
@@ -30663,7 +30582,7 @@
         <v>1.0</v>
       </c>
       <c r="P541" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="Q541" s="1" t="s">
         <v>36</v>
@@ -30675,7 +30594,7 @@
         <v>28750.0</v>
       </c>
       <c r="T541" s="1" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="U541" s="1" t="s">
         <v>39</v>
@@ -30710,7 +30629,7 @@
         <v>58</v>
       </c>
       <c r="N542" s="1" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="O542" s="5">
         <v>0.8</v>
@@ -30728,7 +30647,7 @@
         <v>64000.0</v>
       </c>
       <c r="T542" s="1" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="U542" s="1" t="s">
         <v>31</v>
@@ -30744,7 +30663,7 @@
         <v>23</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D543" s="1" t="s">
         <v>47</v>
@@ -30769,7 +30688,7 @@
         <v>1.0</v>
       </c>
       <c r="P543" s="1" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="Q543" s="1" t="s">
         <v>36</v>
@@ -30820,7 +30739,7 @@
         <v>1.0</v>
       </c>
       <c r="P544" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q544" s="1" t="s">
         <v>29</v>
@@ -30869,7 +30788,7 @@
         <v>1.0</v>
       </c>
       <c r="P545" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="Q545" s="1" t="s">
         <v>29</v>
@@ -30920,7 +30839,7 @@
         <v>1.0</v>
       </c>
       <c r="P546" s="1" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="Q546" s="1" t="s">
         <v>36</v>
@@ -31016,7 +30935,7 @@
         <v>1.0</v>
       </c>
       <c r="P548" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q548" s="1" t="s">
         <v>36</v>
@@ -31065,7 +30984,7 @@
         <v>1.0</v>
       </c>
       <c r="P549" s="1" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="Q549" s="1" t="s">
         <v>36</v>
@@ -31110,13 +31029,13 @@
         <v>67</v>
       </c>
       <c r="N550" s="1" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="O550" s="5">
         <v>1.0</v>
       </c>
       <c r="P550" s="1" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="Q550" s="1" t="s">
         <v>61</v>
@@ -31167,10 +31086,10 @@
         <v>1.0</v>
       </c>
       <c r="P551" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q551" s="1" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="R551" s="4">
         <v>4715.0</v>
@@ -31179,7 +31098,7 @@
         <v>63400.0</v>
       </c>
       <c r="T551" s="1" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="U551" s="1" t="s">
         <v>31</v>
@@ -31213,7 +31132,7 @@
         <v>57</v>
       </c>
       <c r="M552" s="1" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="N552" s="1" t="s">
         <v>27</v>
@@ -31315,10 +31234,10 @@
       <c r="K554" s="1"/>
       <c r="L554" s="1"/>
       <c r="M554" s="1" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="N554" s="1" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="O554" s="5">
         <v>1.0</v>
@@ -31340,7 +31259,7 @@
         <v>31</v>
       </c>
       <c r="V554" s="2" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="W554" s="1"/>
     </row>
@@ -31416,7 +31335,7 @@
       <c r="J556" s="1"/>
       <c r="K556" s="1"/>
       <c r="L556" s="1" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="M556" s="1" t="s">
         <v>58</v>
@@ -31521,7 +31440,7 @@
       <c r="K558" s="1"/>
       <c r="L558" s="1"/>
       <c r="M558" s="1" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="N558" s="1" t="s">
         <v>33</v>
@@ -31530,7 +31449,7 @@
         <v>1.0</v>
       </c>
       <c r="P558" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q558" s="1" t="s">
         <v>29</v>
@@ -31572,7 +31491,7 @@
       <c r="K559" s="1"/>
       <c r="L559" s="1"/>
       <c r="M559" s="1" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="N559" s="1" t="s">
         <v>27</v>
@@ -31598,7 +31517,7 @@
       </c>
       <c r="V559" s="1"/>
       <c r="W559" s="1" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
     </row>
     <row r="560">
@@ -31634,7 +31553,7 @@
         <v>1.0</v>
       </c>
       <c r="P560" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="Q560" s="1" t="s">
         <v>29</v>
@@ -31787,7 +31706,7 @@
         <v>1.0</v>
       </c>
       <c r="P563" s="1" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="Q563" s="1" t="s">
         <v>36</v>
@@ -31829,7 +31748,7 @@
       <c r="K564" s="1"/>
       <c r="L564" s="1"/>
       <c r="M564" s="1" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="N564" s="1" t="s">
         <v>59</v>
@@ -31886,10 +31805,10 @@
         <v>33</v>
       </c>
       <c r="O565" s="1" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="P565" s="1" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="Q565" s="1" t="s">
         <v>36</v>
@@ -31897,8 +31816,8 @@
       <c r="R565" s="4">
         <v>4850.0</v>
       </c>
-      <c r="S565" s="1" t="s">
-        <v>716</v>
+      <c r="S565" s="7">
+        <v>60625.0</v>
       </c>
       <c r="T565" s="1"/>
       <c r="U565" s="1" t="s">
@@ -31937,7 +31856,7 @@
         <v>27</v>
       </c>
       <c r="O566" s="1" t="s">
-        <v>717</v>
+        <v>695</v>
       </c>
       <c r="P566" s="1"/>
       <c r="Q566" s="1" t="s">
@@ -31983,7 +31902,7 @@
         <v>1.0</v>
       </c>
       <c r="P567" s="1" t="s">
-        <v>718</v>
+        <v>696</v>
       </c>
       <c r="Q567" s="1" t="s">
         <v>29</v>
@@ -31995,7 +31914,7 @@
         <v>71000.0</v>
       </c>
       <c r="T567" s="1" t="s">
-        <v>719</v>
+        <v>697</v>
       </c>
       <c r="U567" s="1" t="s">
         <v>31</v>
@@ -32048,7 +31967,7 @@
         <v>49500.0</v>
       </c>
       <c r="T568" s="1" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="U568" s="1" t="s">
         <v>39</v>
@@ -32079,7 +31998,7 @@
       <c r="J569" s="1"/>
       <c r="K569" s="1"/>
       <c r="L569" s="1" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
       <c r="M569" s="1" t="s">
         <v>26</v>
@@ -32091,7 +32010,7 @@
         <v>1.0</v>
       </c>
       <c r="P569" s="1" t="s">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="Q569" s="1" t="s">
         <v>29</v>
@@ -32103,7 +32022,7 @@
         <v>73750.0</v>
       </c>
       <c r="T569" s="1" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
       <c r="U569" s="1" t="s">
         <v>31</v>
@@ -32134,7 +32053,7 @@
       <c r="J570" s="1"/>
       <c r="K570" s="1"/>
       <c r="L570" s="1" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="M570" s="1" t="s">
         <v>26</v>
@@ -32197,7 +32116,7 @@
         <v>1.0</v>
       </c>
       <c r="P571" s="1" t="s">
-        <v>725</v>
+        <v>703</v>
       </c>
       <c r="Q571" s="1" t="s">
         <v>29</v>
@@ -32209,7 +32128,7 @@
         <v>80000.0</v>
       </c>
       <c r="T571" s="1" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="U571" s="1" t="s">
         <v>39</v>
@@ -32339,7 +32258,7 @@
         <v>1.5</v>
       </c>
       <c r="G574" s="1" t="s">
-        <v>727</v>
+        <v>705</v>
       </c>
       <c r="H574" s="4">
         <v>120.0</v>
@@ -32386,7 +32305,7 @@
         <v>10.0</v>
       </c>
       <c r="G575" s="1" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="H575" s="4">
         <v>90.0</v>
@@ -32395,7 +32314,7 @@
         <v>100000.0</v>
       </c>
       <c r="J575" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K575" s="1" t="s">
         <v>50</v>
@@ -32446,7 +32365,7 @@
         <v>1.0</v>
       </c>
       <c r="P576" s="1" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="Q576" s="1" t="s">
         <v>36</v>
@@ -32458,7 +32377,7 @@
         <v>120000.0</v>
       </c>
       <c r="T576" s="1" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
       <c r="U576" s="1" t="s">
         <v>31</v>
@@ -32511,7 +32430,7 @@
         <v>50000.0</v>
       </c>
       <c r="T577" s="1" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="U577" s="1" t="s">
         <v>39</v>
@@ -32552,7 +32471,7 @@
         <v>1.0</v>
       </c>
       <c r="P578" s="1" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="Q578" s="1" t="s">
         <v>36</v>
@@ -32603,7 +32522,7 @@
         <v>1.0</v>
       </c>
       <c r="P579" s="1" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="Q579" s="1" t="s">
         <v>29</v>
@@ -32615,7 +32534,7 @@
         <v>135000.0</v>
       </c>
       <c r="T579" s="1" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
       <c r="U579" s="1" t="s">
         <v>31</v>
@@ -32654,7 +32573,7 @@
         <v>1.0</v>
       </c>
       <c r="P580" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q580" s="1" t="s">
         <v>36</v>
@@ -32705,7 +32624,7 @@
         <v>1.0</v>
       </c>
       <c r="P581" s="1" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="Q581" s="1" t="s">
         <v>61</v>
@@ -32717,7 +32636,7 @@
         <v>77000.0</v>
       </c>
       <c r="T581" s="1" t="s">
-        <v>736</v>
+        <v>714</v>
       </c>
       <c r="U581" s="1" t="s">
         <v>31</v>
@@ -32758,7 +32677,7 @@
         <v>1.0</v>
       </c>
       <c r="P582" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q582" s="1" t="s">
         <v>29</v>
@@ -32799,7 +32718,7 @@
       <c r="J583" s="1"/>
       <c r="K583" s="1"/>
       <c r="L583" s="1" t="s">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="M583" s="1" t="s">
         <v>58</v>
@@ -32811,10 +32730,10 @@
         <v>1.0</v>
       </c>
       <c r="P583" s="1" t="s">
-        <v>738</v>
+        <v>716</v>
       </c>
       <c r="Q583" s="1" t="s">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="R583" s="4">
         <v>4800.0</v>
@@ -32827,7 +32746,7 @@
         <v>31</v>
       </c>
       <c r="V583" s="2" t="s">
-        <v>740</v>
+        <v>718</v>
       </c>
       <c r="W583" s="1"/>
     </row>
@@ -32915,7 +32834,7 @@
         <v>1.0</v>
       </c>
       <c r="P585" s="1" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
       <c r="Q585" s="1" t="s">
         <v>61</v>
@@ -33007,7 +32926,7 @@
       <c r="J587" s="1"/>
       <c r="K587" s="1"/>
       <c r="L587" s="1" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
       <c r="M587" s="1" t="s">
         <v>26</v>
@@ -33019,7 +32938,7 @@
         <v>1.0</v>
       </c>
       <c r="P587" s="1" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="Q587" s="1" t="s">
         <v>29</v>
@@ -33070,7 +32989,7 @@
         <v>1.0</v>
       </c>
       <c r="P588" s="1" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="Q588" s="1" t="s">
         <v>36</v>
@@ -33078,11 +32997,11 @@
       <c r="R588" s="4">
         <v>5145.0</v>
       </c>
-      <c r="S588" s="1" t="s">
-        <v>745</v>
+      <c r="S588" s="7">
+        <v>64312.5</v>
       </c>
       <c r="T588" s="1" t="s">
-        <v>746</v>
+        <v>723</v>
       </c>
       <c r="U588" s="1" t="s">
         <v>31</v>
@@ -33121,7 +33040,7 @@
         <v>1.0</v>
       </c>
       <c r="P589" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q589" s="1" t="s">
         <v>61</v>
@@ -33162,7 +33081,7 @@
       <c r="J590" s="1"/>
       <c r="K590" s="1"/>
       <c r="L590" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M590" s="1" t="s">
         <v>26</v>
@@ -33272,7 +33191,7 @@
         <v>1.0</v>
       </c>
       <c r="P592" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="Q592" s="1" t="s">
         <v>36</v>
@@ -33298,7 +33217,7 @@
         <v>42</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D593" s="1" t="s">
         <v>25</v>
@@ -33310,7 +33229,7 @@
         <v>1.0</v>
       </c>
       <c r="G593" s="1" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
       <c r="H593" s="4">
         <v>105.0</v>
@@ -33319,7 +33238,7 @@
         <v>180000.0</v>
       </c>
       <c r="J593" s="1" t="s">
-        <v>748</v>
+        <v>725</v>
       </c>
       <c r="K593" s="1" t="s">
         <v>46</v>
@@ -33421,7 +33340,7 @@
         <v>1.0</v>
       </c>
       <c r="P595" s="1" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
       <c r="Q595" s="1" t="s">
         <v>36</v>
@@ -33459,7 +33378,7 @@
         <v>8.0</v>
       </c>
       <c r="G596" s="1" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
       <c r="H596" s="4">
         <v>50.0</v>
@@ -33468,10 +33387,10 @@
         <v>80000.0</v>
       </c>
       <c r="J596" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K596" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L596" s="1"/>
       <c r="M596" s="1"/>
@@ -33521,7 +33440,7 @@
         <v>1.0</v>
       </c>
       <c r="P597" s="1" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="Q597" s="1" t="s">
         <v>29</v>
@@ -33531,7 +33450,7 @@
         <v>104000.0</v>
       </c>
       <c r="T597" s="1" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="U597" s="1" t="s">
         <v>31</v>
@@ -33623,7 +33542,7 @@
         <v>1.0</v>
       </c>
       <c r="P599" s="1" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="Q599" s="1" t="s">
         <v>61</v>
@@ -33635,16 +33554,16 @@
         <v>41125.0</v>
       </c>
       <c r="T599" s="1" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="U599" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V599" s="1" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="W599" s="2" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
     </row>
     <row r="600">
@@ -33670,7 +33589,7 @@
       <c r="J600" s="1"/>
       <c r="K600" s="1"/>
       <c r="L600" s="1" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="M600" s="1" t="s">
         <v>26</v>
@@ -33682,7 +33601,7 @@
         <v>1.0</v>
       </c>
       <c r="P600" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q600" s="1" t="s">
         <v>29</v>
@@ -33727,7 +33646,7 @@
         <v>120000.0</v>
       </c>
       <c r="J601" s="1" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="K601" s="1" t="s">
         <v>46</v>
@@ -33778,7 +33697,7 @@
         <v>1.0</v>
       </c>
       <c r="P602" s="1" t="s">
-        <v>758</v>
+        <v>735</v>
       </c>
       <c r="Q602" s="1" t="s">
         <v>36</v>
@@ -33829,7 +33748,7 @@
         <v>1.0</v>
       </c>
       <c r="P603" s="1" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="Q603" s="1" t="s">
         <v>36</v>
@@ -33837,15 +33756,15 @@
       <c r="R603" s="4">
         <v>2400.0</v>
       </c>
-      <c r="S603" s="1" t="s">
-        <v>759</v>
+      <c r="S603" s="7">
+        <v>32200.0</v>
       </c>
       <c r="T603" s="1"/>
       <c r="U603" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V603" s="2" t="s">
-        <v>760</v>
+        <v>736</v>
       </c>
       <c r="W603" s="1"/>
     </row>
@@ -33920,7 +33839,7 @@
         <v>9.0</v>
       </c>
       <c r="G605" s="1" t="s">
-        <v>761</v>
+        <v>737</v>
       </c>
       <c r="H605" s="1"/>
       <c r="I605" s="4">
@@ -33976,7 +33895,7 @@
         <v>1.0</v>
       </c>
       <c r="P606" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="Q606" s="1" t="s">
         <v>29</v>
@@ -33986,7 +33905,7 @@
         <v>80000.0</v>
       </c>
       <c r="T606" s="1" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="U606" s="1" t="s">
         <v>31</v>
@@ -34005,7 +33924,7 @@
         <v>40</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="E607" s="4">
         <v>14.0</v>
@@ -34044,7 +33963,7 @@
       </c>
       <c r="V607" s="1"/>
       <c r="W607" s="2" t="s">
-        <v>762</v>
+        <v>738</v>
       </c>
     </row>
     <row r="608">
@@ -34092,7 +34011,7 @@
         <v>65000.0</v>
       </c>
       <c r="T608" s="1" t="s">
-        <v>763</v>
+        <v>739</v>
       </c>
       <c r="U608" s="1" t="s">
         <v>39</v>
@@ -34133,7 +34052,7 @@
         <v>1.0</v>
       </c>
       <c r="P609" s="1" t="s">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="Q609" s="1" t="s">
         <v>29</v>
@@ -34182,7 +34101,7 @@
         <v>1.0</v>
       </c>
       <c r="P610" s="1" t="s">
-        <v>765</v>
+        <v>741</v>
       </c>
       <c r="Q610" s="1" t="s">
         <v>36</v>
@@ -34231,7 +34150,7 @@
         <v>1.0</v>
       </c>
       <c r="P611" s="1" t="s">
-        <v>766</v>
+        <v>742</v>
       </c>
       <c r="Q611" s="1" t="s">
         <v>36</v>
@@ -34282,7 +34201,7 @@
         <v>1.0</v>
       </c>
       <c r="P612" s="1" t="s">
-        <v>767</v>
+        <v>743</v>
       </c>
       <c r="Q612" s="1" t="s">
         <v>29</v>
@@ -34333,7 +34252,7 @@
         <v>1.0</v>
       </c>
       <c r="P613" s="1" t="s">
-        <v>768</v>
+        <v>744</v>
       </c>
       <c r="Q613" s="1" t="s">
         <v>61</v>
@@ -34435,7 +34354,7 @@
         <v>1.0</v>
       </c>
       <c r="P615" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q615" s="1" t="s">
         <v>36</v>
@@ -34531,7 +34450,7 @@
         <v>1.0</v>
       </c>
       <c r="P617" s="1" t="s">
-        <v>769</v>
+        <v>745</v>
       </c>
       <c r="Q617" s="1" t="s">
         <v>36</v>
@@ -34633,7 +34552,7 @@
         <v>1.0</v>
       </c>
       <c r="P619" s="1" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="Q619" s="1" t="s">
         <v>36</v>
@@ -34674,7 +34593,7 @@
       <c r="J620" s="1"/>
       <c r="K620" s="1"/>
       <c r="L620" s="1" t="s">
-        <v>770</v>
+        <v>746</v>
       </c>
       <c r="M620" s="1" t="s">
         <v>26</v>
@@ -34686,7 +34605,7 @@
         <v>1.0</v>
       </c>
       <c r="P620" s="1" t="s">
-        <v>771</v>
+        <v>747</v>
       </c>
       <c r="Q620" s="1" t="s">
         <v>36</v>
@@ -34698,14 +34617,14 @@
         <v>77087.0</v>
       </c>
       <c r="T620" s="1" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="U620" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V620" s="1"/>
       <c r="W620" s="2" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
     </row>
     <row r="621">
@@ -34729,7 +34648,7 @@
       <c r="J621" s="1"/>
       <c r="K621" s="1"/>
       <c r="L621" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M621" s="1" t="s">
         <v>26</v>
@@ -34741,7 +34660,7 @@
         <v>1.0</v>
       </c>
       <c r="P621" s="1" t="s">
-        <v>774</v>
+        <v>750</v>
       </c>
       <c r="Q621" s="1" t="s">
         <v>36</v>
@@ -34792,7 +34711,7 @@
         <v>1.0</v>
       </c>
       <c r="P622" s="1" t="s">
-        <v>775</v>
+        <v>751</v>
       </c>
       <c r="Q622" s="1" t="s">
         <v>29</v>
@@ -34843,7 +34762,7 @@
         <v>1.0</v>
       </c>
       <c r="P623" s="1" t="s">
-        <v>776</v>
+        <v>752</v>
       </c>
       <c r="Q623" s="1" t="s">
         <v>29</v>
@@ -34884,10 +34803,10 @@
       <c r="J624" s="1"/>
       <c r="K624" s="1"/>
       <c r="L624" s="1" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="M624" s="1" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="N624" s="1" t="s">
         <v>33</v>
@@ -34896,23 +34815,23 @@
         <v>1.0</v>
       </c>
       <c r="P624" s="1" t="s">
-        <v>778</v>
+        <v>754</v>
       </c>
       <c r="Q624" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R624" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="S624" s="1" t="s">
-        <v>780</v>
+      <c r="R624" s="7">
+        <v>10000.0</v>
+      </c>
+      <c r="S624" s="7">
+        <v>130000.0</v>
       </c>
       <c r="T624" s="1"/>
       <c r="U624" s="1" t="s">
         <v>39</v>
       </c>
       <c r="V624" s="1" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="W624" s="1"/>
     </row>
@@ -34949,7 +34868,7 @@
         <v>1.0</v>
       </c>
       <c r="P625" s="1" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="Q625" s="1" t="s">
         <v>29</v>
@@ -34961,14 +34880,14 @@
         <v>58750.0</v>
       </c>
       <c r="T625" s="1" t="s">
-        <v>783</v>
+        <v>757</v>
       </c>
       <c r="U625" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V625" s="1"/>
       <c r="W625" s="2" t="s">
-        <v>784</v>
+        <v>758</v>
       </c>
     </row>
     <row r="626">
@@ -34982,7 +34901,7 @@
         <v>40</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>785</v>
+        <v>759</v>
       </c>
       <c r="E626" s="4">
         <v>2.0</v>
@@ -34994,7 +34913,7 @@
       <c r="J626" s="1"/>
       <c r="K626" s="1"/>
       <c r="L626" s="1" t="s">
-        <v>786</v>
+        <v>760</v>
       </c>
       <c r="M626" s="1" t="s">
         <v>26</v>
@@ -35018,7 +34937,7 @@
         <v>38750.0</v>
       </c>
       <c r="T626" s="1" t="s">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="U626" s="1" t="s">
         <v>31</v>
@@ -35046,7 +34965,7 @@
         <v>8.0</v>
       </c>
       <c r="G627" s="2" t="s">
-        <v>788</v>
+        <v>762</v>
       </c>
       <c r="H627" s="1"/>
       <c r="I627" s="4">
@@ -35070,7 +34989,7 @@
       <c r="U627" s="1"/>
       <c r="V627" s="1"/>
       <c r="W627" s="2" t="s">
-        <v>789</v>
+        <v>763</v>
       </c>
     </row>
     <row r="628">
@@ -35096,7 +35015,7 @@
       <c r="J628" s="1"/>
       <c r="K628" s="1"/>
       <c r="L628" s="1" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
       <c r="M628" s="1" t="s">
         <v>58</v>
@@ -35108,7 +35027,7 @@
         <v>1.0</v>
       </c>
       <c r="P628" s="1" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="Q628" s="1" t="s">
         <v>29</v>
@@ -35137,7 +35056,7 @@
         <v>43</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E629" s="4">
         <v>3.0</v>
@@ -35159,7 +35078,7 @@
         <v>1.0</v>
       </c>
       <c r="P629" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q629" s="1" t="s">
         <v>36</v>
@@ -35200,7 +35119,7 @@
       <c r="J630" s="1"/>
       <c r="K630" s="1"/>
       <c r="L630" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="M630" s="1" t="s">
         <v>26</v>
@@ -35212,7 +35131,7 @@
         <v>1.0</v>
       </c>
       <c r="P630" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q630" s="1" t="s">
         <v>36</v>
@@ -35224,16 +35143,16 @@
         <v>53125.0</v>
       </c>
       <c r="T630" s="1" t="s">
-        <v>792</v>
+        <v>766</v>
       </c>
       <c r="U630" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V630" s="1" t="s">
-        <v>793</v>
+        <v>767</v>
       </c>
       <c r="W630" s="2" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
     </row>
     <row r="631">
@@ -35259,7 +35178,7 @@
       <c r="J631" s="1"/>
       <c r="K631" s="1"/>
       <c r="L631" s="1" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="M631" s="1" t="s">
         <v>58</v>
@@ -35271,7 +35190,7 @@
         <v>1.0</v>
       </c>
       <c r="P631" s="1" t="s">
-        <v>795</v>
+        <v>769</v>
       </c>
       <c r="Q631" s="1" t="s">
         <v>29</v>
@@ -35322,7 +35241,7 @@
         <v>1.0</v>
       </c>
       <c r="P632" s="1" t="s">
-        <v>796</v>
+        <v>770</v>
       </c>
       <c r="Q632" s="1" t="s">
         <v>36</v>
@@ -35362,7 +35281,7 @@
       <c r="K633" s="1"/>
       <c r="L633" s="1"/>
       <c r="M633" s="1" t="s">
-        <v>797</v>
+        <v>771</v>
       </c>
       <c r="N633" s="1" t="s">
         <v>97</v>
@@ -35371,7 +35290,7 @@
         <v>0.8</v>
       </c>
       <c r="P633" s="1" t="s">
-        <v>798</v>
+        <v>772</v>
       </c>
       <c r="Q633" s="1" t="s">
         <v>29</v>
@@ -35385,10 +35304,10 @@
         <v>39</v>
       </c>
       <c r="V633" s="1" t="s">
-        <v>799</v>
+        <v>773</v>
       </c>
       <c r="W633" s="2" t="s">
-        <v>800</v>
+        <v>774</v>
       </c>
     </row>
     <row r="634">
@@ -35422,7 +35341,7 @@
         <v>1.0</v>
       </c>
       <c r="P634" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q634" s="1" t="s">
         <v>36</v>
@@ -35430,11 +35349,11 @@
       <c r="R634" s="4">
         <v>5565.0</v>
       </c>
-      <c r="S634" s="1" t="s">
-        <v>801</v>
+      <c r="S634" s="7">
+        <v>69562.5</v>
       </c>
       <c r="T634" s="1" t="s">
-        <v>802</v>
+        <v>775</v>
       </c>
       <c r="U634" s="1" t="s">
         <v>39</v>
@@ -35453,7 +35372,7 @@
         <v>84</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
       <c r="E635" s="4">
         <v>23.0</v>
@@ -35475,7 +35394,7 @@
         <v>0.6</v>
       </c>
       <c r="P635" s="1" t="s">
-        <v>804</v>
+        <v>777</v>
       </c>
       <c r="Q635" s="1" t="s">
         <v>29</v>
@@ -35487,7 +35406,7 @@
         <v>60000.0</v>
       </c>
       <c r="T635" s="1" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
       <c r="U635" s="1" t="s">
         <v>31</v>
@@ -35518,7 +35437,7 @@
       <c r="J636" s="1"/>
       <c r="K636" s="1"/>
       <c r="L636" s="1" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
       <c r="M636" s="1" t="s">
         <v>26</v>
@@ -35618,7 +35537,7 @@
       <c r="J638" s="1"/>
       <c r="K638" s="1"/>
       <c r="L638" s="1" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
       <c r="M638" s="1" t="s">
         <v>26</v>
@@ -35630,7 +35549,7 @@
         <v>1.0</v>
       </c>
       <c r="P638" s="1" t="s">
-        <v>808</v>
+        <v>781</v>
       </c>
       <c r="Q638" s="1" t="s">
         <v>36</v>
@@ -35642,7 +35561,7 @@
         <v>77500.0</v>
       </c>
       <c r="T638" s="1" t="s">
-        <v>809</v>
+        <v>782</v>
       </c>
       <c r="U638" s="1" t="s">
         <v>31</v>
@@ -35685,7 +35604,7 @@
         <v>1.0</v>
       </c>
       <c r="P639" s="1" t="s">
-        <v>810</v>
+        <v>783</v>
       </c>
       <c r="Q639" s="1" t="s">
         <v>36</v>
@@ -35697,7 +35616,7 @@
         <v>89000.0</v>
       </c>
       <c r="T639" s="1" t="s">
-        <v>811</v>
+        <v>784</v>
       </c>
       <c r="U639" s="1" t="s">
         <v>31</v>
@@ -35738,7 +35657,7 @@
         <v>1.0</v>
       </c>
       <c r="P640" s="1" t="s">
-        <v>812</v>
+        <v>785</v>
       </c>
       <c r="Q640" s="1" t="s">
         <v>29</v>
@@ -35746,8 +35665,8 @@
       <c r="R640" s="4">
         <v>5000.0</v>
       </c>
-      <c r="S640" s="4">
-        <v>62.5</v>
+      <c r="S640" s="6">
+        <v>62500.0</v>
       </c>
       <c r="T640" s="1"/>
       <c r="U640" s="1" t="s">
@@ -35789,7 +35708,7 @@
         <v>1.0</v>
       </c>
       <c r="P641" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q641" s="1" t="s">
         <v>29</v>
@@ -35801,7 +35720,7 @@
         <v>68000.0</v>
       </c>
       <c r="T641" s="1" t="s">
-        <v>813</v>
+        <v>786</v>
       </c>
       <c r="U641" s="1" t="s">
         <v>31</v>
@@ -35840,7 +35759,7 @@
         <v>1.0</v>
       </c>
       <c r="P642" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q642" s="1" t="s">
         <v>61</v>
@@ -35866,10 +35785,10 @@
         <v>23</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>814</v>
+        <v>787</v>
       </c>
       <c r="E643" s="4">
         <v>3.0</v>
@@ -35934,13 +35853,13 @@
         <v>67</v>
       </c>
       <c r="N644" s="1" t="s">
-        <v>815</v>
+        <v>788</v>
       </c>
       <c r="O644" s="5">
         <v>1.0</v>
       </c>
       <c r="P644" s="1" t="s">
-        <v>816</v>
+        <v>789</v>
       </c>
       <c r="Q644" s="1" t="s">
         <v>29</v>
@@ -35981,7 +35900,7 @@
       <c r="J645" s="1"/>
       <c r="K645" s="1"/>
       <c r="L645" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M645" s="1" t="s">
         <v>26</v>
@@ -35998,7 +35917,7 @@
       <c r="Q645" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R645" s="9">
+      <c r="R645" s="10">
         <v>4460.0</v>
       </c>
       <c r="S645" s="4">
@@ -36146,7 +36065,7 @@
         <v>1.0</v>
       </c>
       <c r="P648" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q648" s="1" t="s">
         <v>36</v>
@@ -36248,7 +36167,7 @@
         <v>1.0</v>
       </c>
       <c r="P650" s="1" t="s">
-        <v>817</v>
+        <v>790</v>
       </c>
       <c r="Q650" s="1" t="s">
         <v>29</v>
@@ -36340,7 +36259,7 @@
       <c r="J652" s="1"/>
       <c r="K652" s="1"/>
       <c r="L652" s="1" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="M652" s="1" t="s">
         <v>58</v>
@@ -36352,7 +36271,7 @@
         <v>1.0</v>
       </c>
       <c r="P652" s="1" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="Q652" s="1" t="s">
         <v>36</v>
@@ -36403,7 +36322,7 @@
         <v>1.0</v>
       </c>
       <c r="P653" s="1" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="Q653" s="1" t="s">
         <v>36</v>
@@ -36415,7 +36334,7 @@
         <v>80000.0</v>
       </c>
       <c r="T653" s="1" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
       <c r="U653" s="1" t="s">
         <v>31</v>
@@ -36456,7 +36375,7 @@
         <v>1.0</v>
       </c>
       <c r="P654" s="1" t="s">
-        <v>822</v>
+        <v>795</v>
       </c>
       <c r="Q654" s="1" t="s">
         <v>61</v>
@@ -36496,7 +36415,7 @@
       <c r="K655" s="1"/>
       <c r="L655" s="1"/>
       <c r="M655" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="N655" s="1" t="s">
         <v>27</v>
@@ -36505,7 +36424,7 @@
         <v>1.0</v>
       </c>
       <c r="P655" s="1" t="s">
-        <v>823</v>
+        <v>796</v>
       </c>
       <c r="Q655" s="1" t="s">
         <v>61</v>
@@ -36546,7 +36465,7 @@
       <c r="J656" s="1"/>
       <c r="K656" s="1"/>
       <c r="L656" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M656" s="1" t="s">
         <v>26</v>
@@ -36709,7 +36628,7 @@
         <v>1.0</v>
       </c>
       <c r="P659" s="1" t="s">
-        <v>824</v>
+        <v>797</v>
       </c>
       <c r="Q659" s="1" t="s">
         <v>36</v>
@@ -36721,7 +36640,7 @@
         <v>80000.0</v>
       </c>
       <c r="T659" s="1" t="s">
-        <v>825</v>
+        <v>798</v>
       </c>
       <c r="U659" s="1" t="s">
         <v>31</v>
@@ -36747,7 +36666,7 @@
         <v>16.0</v>
       </c>
       <c r="G660" s="1" t="s">
-        <v>826</v>
+        <v>799</v>
       </c>
       <c r="H660" s="4">
         <v>150.0</v>
@@ -36780,7 +36699,7 @@
         <v>23</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D661" s="1" t="s">
         <v>47</v>
@@ -36805,7 +36724,7 @@
         <v>1.0</v>
       </c>
       <c r="P661" s="1" t="s">
-        <v>827</v>
+        <v>800</v>
       </c>
       <c r="Q661" s="1" t="s">
         <v>36</v>
@@ -36847,7 +36766,7 @@
       <c r="K662" s="1"/>
       <c r="L662" s="1"/>
       <c r="M662" s="1" t="s">
-        <v>828</v>
+        <v>801</v>
       </c>
       <c r="N662" s="1" t="s">
         <v>59</v>
@@ -36856,7 +36775,7 @@
         <v>1.0</v>
       </c>
       <c r="P662" s="1" t="s">
-        <v>829</v>
+        <v>802</v>
       </c>
       <c r="Q662" s="1" t="s">
         <v>29</v>
@@ -36907,7 +36826,7 @@
         <v>1.0</v>
       </c>
       <c r="P663" s="1" t="s">
-        <v>830</v>
+        <v>803</v>
       </c>
       <c r="Q663" s="1" t="s">
         <v>36</v>
@@ -36919,7 +36838,7 @@
         <v>77500.0</v>
       </c>
       <c r="T663" s="1" t="s">
-        <v>831</v>
+        <v>804</v>
       </c>
       <c r="U663" s="1" t="s">
         <v>31</v>
@@ -36960,7 +36879,7 @@
         <v>1.0</v>
       </c>
       <c r="P664" s="1" t="s">
-        <v>832</v>
+        <v>805</v>
       </c>
       <c r="Q664" s="1" t="s">
         <v>61</v>
@@ -36974,7 +36893,7 @@
         <v>31</v>
       </c>
       <c r="V664" s="2" t="s">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="W664" s="1"/>
     </row>
@@ -36986,7 +36905,7 @@
         <v>23</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D665" s="1" t="s">
         <v>72</v>
@@ -37011,7 +36930,7 @@
         <v>0.8</v>
       </c>
       <c r="P665" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q665" s="1" t="s">
         <v>61</v>
@@ -37062,7 +36981,7 @@
         <v>0.8</v>
       </c>
       <c r="P666" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q666" s="1" t="s">
         <v>36</v>
@@ -37074,7 +36993,7 @@
         <v>150000.0</v>
       </c>
       <c r="T666" s="1" t="s">
-        <v>834</v>
+        <v>807</v>
       </c>
       <c r="U666" s="1" t="s">
         <v>31</v>
@@ -37168,7 +37087,7 @@
         <v>0.8</v>
       </c>
       <c r="P668" s="1" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="Q668" s="1" t="s">
         <v>36</v>
@@ -37259,7 +37178,7 @@
       <c r="K670" s="1"/>
       <c r="L670" s="1"/>
       <c r="M670" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="N670" s="1" t="s">
         <v>27</v>
@@ -37268,7 +37187,7 @@
         <v>1.0</v>
       </c>
       <c r="P670" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q670" s="1" t="s">
         <v>36</v>
@@ -37309,7 +37228,7 @@
       <c r="J671" s="1"/>
       <c r="K671" s="1"/>
       <c r="L671" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="M671" s="1" t="s">
         <v>26</v>
@@ -37321,7 +37240,7 @@
         <v>1.0</v>
       </c>
       <c r="P671" s="1" t="s">
-        <v>835</v>
+        <v>808</v>
       </c>
       <c r="Q671" s="1" t="s">
         <v>36</v>
@@ -37329,11 +37248,11 @@
       <c r="R671" s="4">
         <v>8300.0</v>
       </c>
-      <c r="S671" s="1" t="s">
-        <v>836</v>
+      <c r="S671" s="7">
+        <v>200000.0</v>
       </c>
       <c r="T671" s="1" t="s">
-        <v>837</v>
+        <v>809</v>
       </c>
       <c r="U671" s="1" t="s">
         <v>31</v>
@@ -37372,7 +37291,7 @@
         <v>1.0</v>
       </c>
       <c r="P672" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q672" s="1" t="s">
         <v>61</v>
@@ -37384,7 +37303,7 @@
         <v>62500.0</v>
       </c>
       <c r="T672" s="1" t="s">
-        <v>838</v>
+        <v>810</v>
       </c>
       <c r="U672" s="1" t="s">
         <v>31</v>
@@ -37423,7 +37342,7 @@
         <v>1.0</v>
       </c>
       <c r="P673" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="Q673" s="1" t="s">
         <v>36</v>
@@ -37449,7 +37368,7 @@
         <v>23</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D674" s="1" t="s">
         <v>25</v>
@@ -37472,7 +37391,7 @@
         <v>1.0</v>
       </c>
       <c r="P674" s="1" t="s">
-        <v>839</v>
+        <v>811</v>
       </c>
       <c r="Q674" s="1" t="s">
         <v>36</v>
@@ -37582,7 +37501,7 @@
         <v>120000.0</v>
       </c>
       <c r="T676" s="1" t="s">
-        <v>840</v>
+        <v>812</v>
       </c>
       <c r="U676" s="1" t="s">
         <v>31</v>
@@ -37623,7 +37542,7 @@
         <v>1.0</v>
       </c>
       <c r="P677" s="1" t="s">
-        <v>841</v>
+        <v>813</v>
       </c>
       <c r="Q677" s="1" t="s">
         <v>36</v>
@@ -37721,7 +37640,7 @@
         <v>1.0</v>
       </c>
       <c r="P679" s="1" t="s">
-        <v>842</v>
+        <v>814</v>
       </c>
       <c r="Q679" s="1" t="s">
         <v>36</v>
@@ -37733,14 +37652,14 @@
         <v>47000.0</v>
       </c>
       <c r="T679" s="1" t="s">
-        <v>843</v>
+        <v>815</v>
       </c>
       <c r="U679" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V679" s="1"/>
       <c r="W679" s="2" t="s">
-        <v>844</v>
+        <v>816</v>
       </c>
     </row>
     <row r="680">
@@ -37767,7 +37686,7 @@
       <c r="K680" s="1"/>
       <c r="L680" s="1"/>
       <c r="M680" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="N680" s="1" t="s">
         <v>33</v>
@@ -37821,7 +37740,7 @@
         <v>1.0</v>
       </c>
       <c r="P681" s="1" t="s">
-        <v>845</v>
+        <v>817</v>
       </c>
       <c r="Q681" s="1" t="s">
         <v>29</v>
@@ -37882,7 +37801,7 @@
         <v>61000.0</v>
       </c>
       <c r="T682" s="1" t="s">
-        <v>846</v>
+        <v>818</v>
       </c>
       <c r="U682" s="1" t="s">
         <v>39</v>
@@ -37942,7 +37861,7 @@
         <v>43</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="E684" s="4">
         <v>2.0</v>
@@ -37954,7 +37873,7 @@
       <c r="J684" s="1"/>
       <c r="K684" s="1"/>
       <c r="L684" s="1" t="s">
-        <v>847</v>
+        <v>819</v>
       </c>
       <c r="M684" s="1" t="s">
         <v>26</v>
@@ -37966,7 +37885,7 @@
         <v>1.0</v>
       </c>
       <c r="P684" s="1" t="s">
-        <v>848</v>
+        <v>820</v>
       </c>
       <c r="Q684" s="1" t="s">
         <v>61</v>
@@ -38005,7 +37924,7 @@
       <c r="J685" s="1"/>
       <c r="K685" s="1"/>
       <c r="L685" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M685" s="1" t="s">
         <v>26</v>
@@ -38017,7 +37936,7 @@
         <v>1.0</v>
       </c>
       <c r="P685" s="1" t="s">
-        <v>849</v>
+        <v>821</v>
       </c>
       <c r="Q685" s="1" t="s">
         <v>29</v>
@@ -38055,7 +37974,7 @@
         <v>4.0</v>
       </c>
       <c r="G686" s="1" t="s">
-        <v>850</v>
+        <v>822</v>
       </c>
       <c r="H686" s="4">
         <v>120.0</v>
@@ -38067,7 +37986,7 @@
         <v>49</v>
       </c>
       <c r="K686" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L686" s="1"/>
       <c r="M686" s="1"/>
